--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_16_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_16_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2515109.055969313</v>
+        <v>-2516969.063897515</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5362323.598410263</v>
+        <v>5362323.598410265</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1370,25 +1370,25 @@
         <v>305.3102796803863</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>287.8493297879132</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>204.2961187904922</v>
       </c>
       <c r="E11" t="n">
         <v>304.5068080891675</v>
       </c>
       <c r="F11" t="n">
-        <v>329.4524837586171</v>
+        <v>329.4524837586172</v>
       </c>
       <c r="G11" t="n">
-        <v>335.1249171548102</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>26.86878149913299</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>68.83384483201117</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>77.82474307003551</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>292.3075386953747</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>308.8143766729593</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>89.10962166677304</v>
+        <v>89.10962166677305</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>95.28493700522145</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>70.02150358154447</v>
       </c>
       <c r="E12" t="n">
-        <v>80.22151847230664</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>58.44629703045003</v>
+        <v>58.44629703045005</v>
       </c>
       <c r="H12" t="n">
-        <v>20.57944696583556</v>
+        <v>20.57944696583557</v>
       </c>
       <c r="I12" t="n">
-        <v>30.85995589767641</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,16 +1497,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>66.88705533198579</v>
+        <v>66.88705533198581</v>
       </c>
       <c r="T12" t="n">
         <v>116.8012902225022</v>
       </c>
       <c r="U12" t="n">
-        <v>148.4208689038235</v>
+        <v>179.2808248015</v>
       </c>
       <c r="V12" t="n">
-        <v>155.377025166331</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1528,22 +1528,22 @@
         <v>102.408418198843</v>
       </c>
       <c r="C13" t="n">
-        <v>89.82325911553353</v>
+        <v>89.82325911553355</v>
       </c>
       <c r="D13" t="n">
-        <v>71.19191103511805</v>
+        <v>71.19191103511807</v>
       </c>
       <c r="E13" t="n">
-        <v>69.01040066347487</v>
+        <v>69.01040066347488</v>
       </c>
       <c r="F13" t="n">
-        <v>67.99748603983694</v>
+        <v>7.058108885815212</v>
       </c>
       <c r="G13" t="n">
-        <v>89.33195188606989</v>
+        <v>89.3319518860699</v>
       </c>
       <c r="H13" t="n">
-        <v>73.81919917407164</v>
+        <v>73.81919917407166</v>
       </c>
       <c r="I13" t="n">
         <v>40.87309622974152</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.31880839361163</v>
+        <v>44.31880839361165</v>
       </c>
       <c r="S13" t="n">
         <v>125.0622420268079</v>
@@ -1585,13 +1585,13 @@
         <v>208.8280783467078</v>
       </c>
       <c r="V13" t="n">
-        <v>113.7747041867138</v>
+        <v>174.7140813407337</v>
       </c>
       <c r="W13" t="n">
         <v>209.0994363534967</v>
       </c>
       <c r="X13" t="n">
-        <v>148.2860934059428</v>
+        <v>148.2860934059429</v>
       </c>
       <c r="Y13" t="n">
         <v>141.1610913690005</v>
@@ -1607,25 +1607,25 @@
         <v>305.3102796803863</v>
       </c>
       <c r="C14" t="n">
-        <v>287.8493297879132</v>
+        <v>287.8493297879133</v>
       </c>
       <c r="D14" t="n">
-        <v>277.2594796375886</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>304.5068080891675</v>
       </c>
       <c r="F14" t="n">
-        <v>329.4524837586171</v>
+        <v>329.4524837586172</v>
       </c>
       <c r="G14" t="n">
-        <v>310.1869632142567</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>233.844191526861</v>
+        <v>233.8441915268611</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>26.86878149913305</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>68.83384483201121</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>133.6155215347106</v>
       </c>
       <c r="U14" t="n">
-        <v>173.7017502545637</v>
+        <v>173.7017502545638</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>250.3286964870407</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>124.306436476534</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>292.3075386953748</v>
       </c>
       <c r="Y14" t="n">
-        <v>308.8143766729593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I15" t="n">
-        <v>38.65884129492116</v>
+        <v>38.65884129492205</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>8.661760614590051</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S15" t="n">
         <v>144.3106173150801</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>102.408418198843</v>
+        <v>102.4084181988431</v>
       </c>
       <c r="C16" t="n">
-        <v>89.82325911553353</v>
+        <v>89.8232591155336</v>
       </c>
       <c r="D16" t="n">
-        <v>71.19191103511805</v>
+        <v>71.19191103511812</v>
       </c>
       <c r="E16" t="n">
-        <v>69.01040066347487</v>
+        <v>69.01040066347494</v>
       </c>
       <c r="F16" t="n">
-        <v>7.058108885816361</v>
+        <v>67.99748603983701</v>
       </c>
       <c r="G16" t="n">
-        <v>89.33195188606987</v>
+        <v>89.33195188606996</v>
       </c>
       <c r="H16" t="n">
-        <v>73.81919917407164</v>
+        <v>73.81919917407171</v>
       </c>
       <c r="I16" t="n">
-        <v>40.87309622974152</v>
+        <v>40.87309622974158</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.31880839361164</v>
+        <v>44.3188083936117</v>
       </c>
       <c r="S16" t="n">
-        <v>125.0622420268079</v>
+        <v>64.12286487278651</v>
       </c>
       <c r="T16" t="n">
-        <v>145.2432203545649</v>
+        <v>145.243220354565</v>
       </c>
       <c r="U16" t="n">
-        <v>208.8280783467078</v>
+        <v>208.8280783467079</v>
       </c>
       <c r="V16" t="n">
-        <v>174.7140813407337</v>
+        <v>174.7140813407338</v>
       </c>
       <c r="W16" t="n">
-        <v>209.0994363534967</v>
+        <v>209.0994363534968</v>
       </c>
       <c r="X16" t="n">
-        <v>148.2860934059428</v>
+        <v>148.2860934059429</v>
       </c>
       <c r="Y16" t="n">
-        <v>141.1610913690005</v>
+        <v>141.1610913690006</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>213.0026284500672</v>
       </c>
       <c r="D17" t="n">
-        <v>202.4127782997426</v>
+        <v>202.4127782997437</v>
       </c>
       <c r="E17" t="n">
         <v>229.6601067513214</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>58.76882019686452</v>
+        <v>58.76882019686451</v>
       </c>
       <c r="U17" t="n">
         <v>98.85504891671769</v>
@@ -1904,7 +1904,7 @@
         <v>175.4819951491945</v>
       </c>
       <c r="W17" t="n">
-        <v>196.9707053964734</v>
+        <v>196.9707053964727</v>
       </c>
       <c r="X17" t="n">
         <v>217.4608373575287</v>
@@ -1941,7 +1941,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I18" t="n">
-        <v>38.65884129492197</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8.661760614590051</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S18" t="n">
-        <v>144.3106173150798</v>
+        <v>144.3106173150807</v>
       </c>
       <c r="T18" t="n">
         <v>194.2248522055965</v>
@@ -2014,16 +2014,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7555138691642</v>
+        <v>14.48525054822382</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>149.0274821214462</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>6.011770023545992</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>193.2312527868616</v>
+        <v>50.21554068896182</v>
       </c>
       <c r="T19" t="n">
-        <v>70.39651901671884</v>
+        <v>222.6667823376592</v>
       </c>
       <c r="U19" t="n">
         <v>133.9813770088617</v>
       </c>
       <c r="V19" t="n">
-        <v>99.86738000288764</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>134.2527350156506</v>
@@ -2068,7 +2068,7 @@
         <v>73.43939206809679</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>66.31439003115443</v>
       </c>
     </row>
     <row r="20">
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>58.76882019686452</v>
+        <v>58.76882019686451</v>
       </c>
       <c r="U20" t="n">
         <v>98.85504891671769</v>
@@ -2172,13 +2172,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.8698590135443</v>
+        <v>135.8698590135444</v>
       </c>
       <c r="H21" t="n">
         <v>98.00300894892986</v>
       </c>
       <c r="I21" t="n">
-        <v>38.65884129492197</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>8.661760614590051</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S21" t="n">
         <v>144.3106173150801</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7555138691642</v>
+        <v>14.48525054822382</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>121.7423703767059</v>
       </c>
       <c r="S22" t="n">
-        <v>50.21554068896182</v>
+        <v>202.4858040099022</v>
       </c>
       <c r="T22" t="n">
-        <v>70.39651901671884</v>
+        <v>222.6667823376592</v>
       </c>
       <c r="U22" t="n">
-        <v>133.9813770088617</v>
+        <v>161.2664887536021</v>
       </c>
       <c r="V22" t="n">
         <v>99.86738000288764</v>
@@ -2302,10 +2302,10 @@
         <v>134.2527350156506</v>
       </c>
       <c r="X22" t="n">
-        <v>222.4668741895425</v>
+        <v>73.43939206809679</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>66.31439003115443</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I24" t="n">
-        <v>38.6588412949194</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>8.661760614590051</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S24" t="n">
         <v>144.3106173150801</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.5127326696696</v>
+        <v>14.48525054822382</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>70.39651901671884</v>
       </c>
       <c r="U25" t="n">
-        <v>133.9813770088617</v>
+        <v>283.0088591303079</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2555,7 +2555,7 @@
         <v>302.7541835278234</v>
       </c>
       <c r="C26" t="n">
-        <v>285.2932336353504</v>
+        <v>285.2932336353505</v>
       </c>
       <c r="D26" t="n">
         <v>274.7033834850258</v>
@@ -2573,7 +2573,7 @@
         <v>231.2880953742983</v>
       </c>
       <c r="I26" t="n">
-        <v>24.31268534657015</v>
+        <v>24.31268534657018</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.27774867944831</v>
+        <v>66.27774867944834</v>
       </c>
       <c r="T26" t="n">
-        <v>131.0594253821477</v>
+        <v>131.0594253821478</v>
       </c>
       <c r="U26" t="n">
         <v>171.1456541020009</v>
@@ -2652,7 +2652,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I27" t="n">
-        <v>38.65884129492197</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>8.661760614590051</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S27" t="n">
         <v>144.3106173150801</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.85232204628015</v>
+        <v>99.85232204628019</v>
       </c>
       <c r="C28" t="n">
-        <v>87.26716296297069</v>
+        <v>87.26716296297073</v>
       </c>
       <c r="D28" t="n">
-        <v>68.63581488255521</v>
+        <v>68.63581488255525</v>
       </c>
       <c r="E28" t="n">
-        <v>66.45430451091202</v>
+        <v>66.45430451091207</v>
       </c>
       <c r="F28" t="n">
-        <v>65.4413898872741</v>
+        <v>65.44138988727414</v>
       </c>
       <c r="G28" t="n">
-        <v>86.77585573350704</v>
+        <v>86.77585573350709</v>
       </c>
       <c r="H28" t="n">
-        <v>71.2631030215088</v>
+        <v>71.26310302150884</v>
       </c>
       <c r="I28" t="n">
-        <v>38.31700007717868</v>
+        <v>38.3170000771787</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.7627122410488</v>
+        <v>41.76271224104883</v>
       </c>
       <c r="S28" t="n">
-        <v>122.506145874245</v>
+        <v>122.5061458742451</v>
       </c>
       <c r="T28" t="n">
         <v>142.6871242020021</v>
@@ -2810,7 +2810,7 @@
         <v>231.2880953742982</v>
       </c>
       <c r="I29" t="n">
-        <v>24.31268534657015</v>
+        <v>24.31268534657012</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.27774867944831</v>
+        <v>66.27774867944828</v>
       </c>
       <c r="T29" t="n">
         <v>131.0594253821477</v>
@@ -2849,7 +2849,7 @@
         <v>171.1456541020009</v>
       </c>
       <c r="V29" t="n">
-        <v>247.7726003344778</v>
+        <v>247.7726003344777</v>
       </c>
       <c r="W29" t="n">
         <v>269.2613105817559</v>
@@ -2858,7 +2858,7 @@
         <v>289.7514425428119</v>
       </c>
       <c r="Y29" t="n">
-        <v>306.2582805203965</v>
+        <v>306.2582805203964</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.85232204628016</v>
+        <v>99.85232204628014</v>
       </c>
       <c r="C31" t="n">
-        <v>87.2671629629707</v>
+        <v>87.26716296297067</v>
       </c>
       <c r="D31" t="n">
-        <v>68.63581488255522</v>
+        <v>68.6358148825552</v>
       </c>
       <c r="E31" t="n">
-        <v>66.45430451091204</v>
+        <v>66.45430451091201</v>
       </c>
       <c r="F31" t="n">
-        <v>65.44138988727411</v>
+        <v>65.44138988727408</v>
       </c>
       <c r="G31" t="n">
-        <v>86.77585573350706</v>
+        <v>86.77585573350703</v>
       </c>
       <c r="H31" t="n">
-        <v>71.26310302150881</v>
+        <v>71.26310302150878</v>
       </c>
       <c r="I31" t="n">
-        <v>38.31700007717868</v>
+        <v>38.31700007717865</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.7627122410488</v>
+        <v>41.76271224104877</v>
       </c>
       <c r="S31" t="n">
         <v>122.506145874245</v>
       </c>
       <c r="T31" t="n">
-        <v>142.6871242020021</v>
+        <v>142.687124202002</v>
       </c>
       <c r="U31" t="n">
         <v>206.271982194145</v>
       </c>
       <c r="V31" t="n">
-        <v>172.1579851881709</v>
+        <v>172.1579851881708</v>
       </c>
       <c r="W31" t="n">
-        <v>206.5433402009339</v>
+        <v>206.5433402009338</v>
       </c>
       <c r="X31" t="n">
         <v>145.72999725338</v>
       </c>
       <c r="Y31" t="n">
-        <v>138.6049952164377</v>
+        <v>138.6049952164376</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>302.7541835278234</v>
       </c>
       <c r="C32" t="n">
-        <v>285.2932336353505</v>
+        <v>285.2932336353504</v>
       </c>
       <c r="D32" t="n">
         <v>274.7033834850258</v>
@@ -3044,10 +3044,10 @@
         <v>332.5688210022474</v>
       </c>
       <c r="H32" t="n">
-        <v>231.2880953742983</v>
+        <v>231.2880953742982</v>
       </c>
       <c r="I32" t="n">
-        <v>24.31268534657019</v>
+        <v>24.31268534657015</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.27774867944837</v>
+        <v>66.27774867944828</v>
       </c>
       <c r="T32" t="n">
-        <v>131.0594253821478</v>
+        <v>131.059425382147</v>
       </c>
       <c r="U32" t="n">
         <v>171.1456541020009</v>
@@ -3126,7 +3126,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I33" t="n">
-        <v>38.65884129492197</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>8.661760614590051</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S33" t="n">
         <v>144.3106173150801</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.85232204628019</v>
+        <v>99.85232204628015</v>
       </c>
       <c r="C34" t="n">
-        <v>87.26716296297073</v>
+        <v>87.26716296297069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.63581488255525</v>
+        <v>68.63581488255521</v>
       </c>
       <c r="E34" t="n">
-        <v>66.45430451091207</v>
+        <v>66.45430451091202</v>
       </c>
       <c r="F34" t="n">
-        <v>65.44138988727414</v>
+        <v>65.4413898872741</v>
       </c>
       <c r="G34" t="n">
-        <v>86.77585573350709</v>
+        <v>86.77585573350704</v>
       </c>
       <c r="H34" t="n">
-        <v>71.26310302150884</v>
+        <v>71.2631030215088</v>
       </c>
       <c r="I34" t="n">
-        <v>38.31700007717872</v>
+        <v>38.31700007717866</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76271224104884</v>
+        <v>41.76271224104879</v>
       </c>
       <c r="S34" t="n">
-        <v>122.5061458742451</v>
+        <v>122.506145874245</v>
       </c>
       <c r="T34" t="n">
         <v>142.6871242020021</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>278.4414981812532</v>
+        <v>278.4414981812533</v>
       </c>
       <c r="C35" t="n">
         <v>260.9805482887803</v>
       </c>
       <c r="D35" t="n">
-        <v>250.3906981384556</v>
+        <v>250.3906981384557</v>
       </c>
       <c r="E35" t="n">
-        <v>277.6380265900344</v>
+        <v>277.6380265900345</v>
       </c>
       <c r="F35" t="n">
         <v>302.5837022594841</v>
       </c>
       <c r="G35" t="n">
-        <v>308.2561356556772</v>
+        <v>308.2561356556773</v>
       </c>
       <c r="H35" t="n">
-        <v>206.975410027728</v>
+        <v>206.9754100277281</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>41.96506333287815</v>
       </c>
       <c r="T35" t="n">
-        <v>106.7467400355775</v>
+        <v>106.7467400355776</v>
       </c>
       <c r="U35" t="n">
-        <v>146.8329687554307</v>
+        <v>146.8329687554308</v>
       </c>
       <c r="V35" t="n">
         <v>223.4599149879076</v>
@@ -3363,7 +3363,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I36" t="n">
-        <v>38.65884129492197</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>8.661760614590051</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S36" t="n">
         <v>144.3106173150801</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>75.53963669970997</v>
+        <v>75.53963669971</v>
       </c>
       <c r="C37" t="n">
-        <v>62.95447761640051</v>
+        <v>62.95447761640054</v>
       </c>
       <c r="D37" t="n">
-        <v>44.32312953598503</v>
+        <v>44.32312953598506</v>
       </c>
       <c r="E37" t="n">
-        <v>42.14161916434185</v>
+        <v>42.14161916434188</v>
       </c>
       <c r="F37" t="n">
-        <v>41.12870454070392</v>
+        <v>41.12870454070395</v>
       </c>
       <c r="G37" t="n">
-        <v>62.46317038693685</v>
+        <v>62.46317038693688</v>
       </c>
       <c r="H37" t="n">
-        <v>46.95041767493862</v>
+        <v>46.95041767493864</v>
       </c>
       <c r="I37" t="n">
-        <v>14.0043147306085</v>
+        <v>14.00431473060852</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>17.45002689447862</v>
+        <v>17.45002689447863</v>
       </c>
       <c r="S37" t="n">
-        <v>98.19346052767486</v>
+        <v>98.19346052767489</v>
       </c>
       <c r="T37" t="n">
         <v>118.3744388554319</v>
@@ -3487,7 +3487,7 @@
         <v>182.2306548543637</v>
       </c>
       <c r="X37" t="n">
-        <v>121.4173119068098</v>
+        <v>121.4173119068099</v>
       </c>
       <c r="Y37" t="n">
         <v>114.2923098698675</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>41.96506333287816</v>
+        <v>41.96506333287813</v>
       </c>
       <c r="T38" t="n">
         <v>106.7467400355776</v>
@@ -3600,7 +3600,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I39" t="n">
-        <v>38.65884129492197</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>8.661760614590051</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S39" t="n">
         <v>144.3106173150801</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>17.45002689447863</v>
+        <v>17.45002689447862</v>
       </c>
       <c r="S40" t="n">
-        <v>98.19346052767487</v>
+        <v>98.19346052767486</v>
       </c>
       <c r="T40" t="n">
         <v>118.3744388554319</v>
@@ -3749,7 +3749,7 @@
         <v>277.6380265900345</v>
       </c>
       <c r="F41" t="n">
-        <v>302.5837022594841</v>
+        <v>302.5837022594842</v>
       </c>
       <c r="G41" t="n">
         <v>308.2561356556773</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>41.96506333287815</v>
+        <v>41.96506333287819</v>
       </c>
       <c r="T41" t="n">
         <v>106.7467400355776</v>
       </c>
       <c r="U41" t="n">
-        <v>146.8329687554307</v>
+        <v>146.8329687554308</v>
       </c>
       <c r="V41" t="n">
-        <v>223.4599149879076</v>
+        <v>223.4599149879077</v>
       </c>
       <c r="W41" t="n">
-        <v>244.9486252351857</v>
+        <v>244.9486252351858</v>
       </c>
       <c r="X41" t="n">
-        <v>265.4387571962417</v>
+        <v>265.4387571962418</v>
       </c>
       <c r="Y41" t="n">
         <v>281.9455951738263</v>
@@ -3837,7 +3837,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I42" t="n">
-        <v>38.65884129492197</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>8.661760614590051</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S42" t="n">
         <v>144.3106173150801</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>75.53963669970999</v>
+        <v>75.53963669971004</v>
       </c>
       <c r="C43" t="n">
-        <v>62.95447761640052</v>
+        <v>62.95447761640058</v>
       </c>
       <c r="D43" t="n">
-        <v>44.32312953598505</v>
+        <v>44.3231295359851</v>
       </c>
       <c r="E43" t="n">
-        <v>42.14161916434186</v>
+        <v>42.14161916434192</v>
       </c>
       <c r="F43" t="n">
-        <v>41.12870454070394</v>
+        <v>41.12870454070399</v>
       </c>
       <c r="G43" t="n">
-        <v>62.46317038693687</v>
+        <v>62.46317038693692</v>
       </c>
       <c r="H43" t="n">
-        <v>46.95041767493863</v>
+        <v>46.95041767493868</v>
       </c>
       <c r="I43" t="n">
-        <v>14.00431473060851</v>
+        <v>14.00431473060856</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>17.45002689447863</v>
+        <v>17.45002689447868</v>
       </c>
       <c r="S43" t="n">
-        <v>98.19346052767487</v>
+        <v>98.19346052767492</v>
       </c>
       <c r="T43" t="n">
         <v>118.3744388554319</v>
@@ -3955,13 +3955,13 @@
         <v>181.9592968475748</v>
       </c>
       <c r="V43" t="n">
-        <v>147.8452998416007</v>
+        <v>147.8452998416008</v>
       </c>
       <c r="W43" t="n">
-        <v>182.2306548543637</v>
+        <v>182.2306548543638</v>
       </c>
       <c r="X43" t="n">
-        <v>121.4173119068098</v>
+        <v>121.4173119068099</v>
       </c>
       <c r="Y43" t="n">
         <v>114.2923098698675</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>41.96506333287816</v>
+        <v>41.96506333287815</v>
       </c>
       <c r="T44" t="n">
         <v>106.7467400355776</v>
       </c>
       <c r="U44" t="n">
-        <v>146.8329687554307</v>
+        <v>146.8329687554308</v>
       </c>
       <c r="V44" t="n">
         <v>223.4599149879076</v>
@@ -4074,7 +4074,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I45" t="n">
-        <v>38.65884129492198</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>8.661760614590065</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S45" t="n">
         <v>144.3106173150801</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>75.53963669970999</v>
+        <v>75.53963669971</v>
       </c>
       <c r="C46" t="n">
-        <v>62.95447761640052</v>
+        <v>62.95447761640054</v>
       </c>
       <c r="D46" t="n">
-        <v>44.32312953598505</v>
+        <v>44.32312953598506</v>
       </c>
       <c r="E46" t="n">
-        <v>42.14161916434186</v>
+        <v>42.14161916434188</v>
       </c>
       <c r="F46" t="n">
-        <v>41.12870454070394</v>
+        <v>41.12870454070395</v>
       </c>
       <c r="G46" t="n">
-        <v>62.46317038693687</v>
+        <v>62.46317038693688</v>
       </c>
       <c r="H46" t="n">
-        <v>46.95041767493863</v>
+        <v>46.95041767493864</v>
       </c>
       <c r="I46" t="n">
         <v>14.00431473060852</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>17.45002689447864</v>
+        <v>17.45002689447863</v>
       </c>
       <c r="S46" t="n">
-        <v>98.19346052767487</v>
+        <v>98.19346052767489</v>
       </c>
       <c r="T46" t="n">
         <v>118.3744388554319</v>
@@ -4198,7 +4198,7 @@
         <v>182.2306548543637</v>
       </c>
       <c r="X46" t="n">
-        <v>121.4173119068098</v>
+        <v>121.4173119068099</v>
       </c>
       <c r="Y46" t="n">
         <v>114.2923098698675</v>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1041.886743586151</v>
+        <v>1173.353157651265</v>
       </c>
       <c r="C11" t="n">
-        <v>1041.886743586151</v>
+        <v>882.5962588755948</v>
       </c>
       <c r="D11" t="n">
-        <v>1041.886743586151</v>
+        <v>676.2365429256026</v>
       </c>
       <c r="E11" t="n">
-        <v>734.3041091526488</v>
+        <v>368.6539084921002</v>
       </c>
       <c r="F11" t="n">
-        <v>401.5238225277831</v>
+        <v>35.8736218672343</v>
       </c>
       <c r="G11" t="n">
-        <v>63.0138051996919</v>
+        <v>35.8736218672343</v>
       </c>
       <c r="H11" t="n">
-        <v>63.0138051996919</v>
+        <v>35.8736218672343</v>
       </c>
       <c r="I11" t="n">
-        <v>35.87362186723429</v>
+        <v>35.8736218672343</v>
       </c>
       <c r="J11" t="n">
-        <v>88.0647709608368</v>
+        <v>88.06477096083687</v>
       </c>
       <c r="K11" t="n">
-        <v>532.0008415678611</v>
+        <v>217.0242925384132</v>
       </c>
       <c r="L11" t="n">
-        <v>814.3404696340722</v>
+        <v>413.9117442942789</v>
       </c>
       <c r="M11" t="n">
-        <v>1065.085133307137</v>
+        <v>664.6564079673441</v>
       </c>
       <c r="N11" t="n">
-        <v>1324.500916162741</v>
+        <v>924.0721908229474</v>
       </c>
       <c r="O11" t="n">
-        <v>1556.124622500299</v>
+        <v>1155.695897160506</v>
       </c>
       <c r="P11" t="n">
-        <v>1719.309096196612</v>
+        <v>1509.117255443306</v>
       </c>
       <c r="Q11" t="n">
         <v>1793.681093361715</v>
@@ -5066,25 +5066,25 @@
         <v>1793.681093361715</v>
       </c>
       <c r="S11" t="n">
-        <v>1724.151957167764</v>
+        <v>1793.681093361715</v>
       </c>
       <c r="T11" t="n">
-        <v>1724.151957167764</v>
+        <v>1793.681093361715</v>
       </c>
       <c r="U11" t="n">
-        <v>1724.151957167764</v>
+        <v>1793.681093361715</v>
       </c>
       <c r="V11" t="n">
-        <v>1645.541105581869</v>
+        <v>1793.681093361715</v>
       </c>
       <c r="W11" t="n">
-        <v>1645.541105581869</v>
+        <v>1793.681093361715</v>
       </c>
       <c r="X11" t="n">
-        <v>1350.280965485531</v>
+        <v>1793.681093361715</v>
       </c>
       <c r="Y11" t="n">
-        <v>1350.280965485531</v>
+        <v>1481.747379550645</v>
       </c>
     </row>
     <row r="12">
@@ -5094,43 +5094,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>697.8231120819888</v>
+        <v>588.4458212933316</v>
       </c>
       <c r="C12" t="n">
-        <v>523.3700828008618</v>
+        <v>492.1984101769464</v>
       </c>
       <c r="D12" t="n">
-        <v>374.4356731396106</v>
+        <v>421.4696186804368</v>
       </c>
       <c r="E12" t="n">
-        <v>293.4038362988968</v>
+        <v>262.2321636749813</v>
       </c>
       <c r="F12" t="n">
-        <v>146.8692783257818</v>
+        <v>115.6976057018662</v>
       </c>
       <c r="G12" t="n">
-        <v>87.83261465866053</v>
+        <v>56.66094203474498</v>
       </c>
       <c r="H12" t="n">
-        <v>67.04529449114986</v>
+        <v>35.8736218672343</v>
       </c>
       <c r="I12" t="n">
-        <v>35.87362186723429</v>
+        <v>35.8736218672343</v>
       </c>
       <c r="J12" t="n">
-        <v>172.9705907522306</v>
+        <v>48.14046576522588</v>
       </c>
       <c r="K12" t="n">
-        <v>521.1816818468706</v>
+        <v>409.0818651884204</v>
       </c>
       <c r="L12" t="n">
-        <v>700.7843907430307</v>
+        <v>853.0179357954448</v>
       </c>
       <c r="M12" t="n">
-        <v>1144.720461350055</v>
+        <v>1081.962693937031</v>
       </c>
       <c r="N12" t="n">
-        <v>1394.133350909007</v>
+        <v>1331.375583495984</v>
       </c>
       <c r="O12" t="n">
         <v>1600.077622893648</v>
@@ -5145,25 +5145,25 @@
         <v>1793.681093361715</v>
       </c>
       <c r="S12" t="n">
-        <v>1726.118411208193</v>
+        <v>1726.118411208194</v>
       </c>
       <c r="T12" t="n">
         <v>1608.137309973343</v>
       </c>
       <c r="U12" t="n">
-        <v>1458.217240373521</v>
+        <v>1427.045567749606</v>
       </c>
       <c r="V12" t="n">
-        <v>1301.27075030652</v>
+        <v>1191.893459517863</v>
       </c>
       <c r="W12" t="n">
-        <v>1047.033393578319</v>
+        <v>937.6561027896613</v>
       </c>
       <c r="X12" t="n">
-        <v>917.3875115375274</v>
+        <v>808.0102207488702</v>
       </c>
       <c r="Y12" t="n">
-        <v>787.8328309373152</v>
+        <v>678.455540148658</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>542.9921109014225</v>
+        <v>481.4371844832215</v>
       </c>
       <c r="C13" t="n">
-        <v>452.2615461382574</v>
+        <v>390.7066197200563</v>
       </c>
       <c r="D13" t="n">
-        <v>380.3505248906633</v>
+        <v>318.7955984724623</v>
       </c>
       <c r="E13" t="n">
-        <v>310.643049473012</v>
+        <v>249.0881230548109</v>
       </c>
       <c r="F13" t="n">
-        <v>241.9587201398434</v>
+        <v>241.9587201398435</v>
       </c>
       <c r="G13" t="n">
-        <v>151.7244253054293</v>
+        <v>151.7244253054294</v>
       </c>
       <c r="H13" t="n">
-        <v>77.15957765485193</v>
+        <v>77.159577654852</v>
       </c>
       <c r="I13" t="n">
-        <v>35.87362186723429</v>
+        <v>35.8736218672343</v>
       </c>
       <c r="J13" t="n">
-        <v>106.5712959071875</v>
+        <v>106.5712959071872</v>
       </c>
       <c r="K13" t="n">
-        <v>303.2770659414894</v>
+        <v>303.277065941489</v>
       </c>
       <c r="L13" t="n">
-        <v>589.0837408197776</v>
+        <v>589.0837408197774</v>
       </c>
       <c r="M13" t="n">
-        <v>896.6492882624211</v>
+        <v>896.6492882624212</v>
       </c>
       <c r="N13" t="n">
         <v>1204.158780512782</v>
@@ -5215,34 +5215,34 @@
         <v>1478.028540358914</v>
       </c>
       <c r="P13" t="n">
-        <v>1699.913336220597</v>
+        <v>1699.913336220598</v>
       </c>
       <c r="Q13" t="n">
         <v>1793.681093361715</v>
       </c>
       <c r="R13" t="n">
-        <v>1748.914620236854</v>
+        <v>1748.914620236855</v>
       </c>
       <c r="S13" t="n">
-        <v>1622.589123240079</v>
+        <v>1622.58912324008</v>
       </c>
       <c r="T13" t="n">
-        <v>1475.878799649609</v>
+        <v>1475.87879964961</v>
       </c>
       <c r="U13" t="n">
-        <v>1264.941346774147</v>
+        <v>1264.941346774148</v>
       </c>
       <c r="V13" t="n">
-        <v>1150.017403151204</v>
+        <v>1088.462476733002</v>
       </c>
       <c r="W13" t="n">
-        <v>938.8058512789845</v>
+        <v>877.2509248607836</v>
       </c>
       <c r="X13" t="n">
-        <v>789.0219185457089</v>
+        <v>727.466992127508</v>
       </c>
       <c r="Y13" t="n">
-        <v>646.4349575669205</v>
+        <v>584.8800311487196</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1812.87959611066</v>
+        <v>1246.639534138224</v>
       </c>
       <c r="C14" t="n">
-        <v>1522.12269733499</v>
+        <v>955.8826353625537</v>
       </c>
       <c r="D14" t="n">
-        <v>1242.062616892982</v>
+        <v>955.8826353625537</v>
       </c>
       <c r="E14" t="n">
-        <v>934.4799824594791</v>
+        <v>648.3000009290512</v>
       </c>
       <c r="F14" t="n">
-        <v>601.6996958346132</v>
+        <v>315.5197143041853</v>
       </c>
       <c r="G14" t="n">
-        <v>288.3795309717276</v>
+        <v>315.5197143041853</v>
       </c>
       <c r="H14" t="n">
-        <v>52.17327690419117</v>
+        <v>79.31346023664878</v>
       </c>
       <c r="I14" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="J14" t="n">
-        <v>271.7700750181467</v>
+        <v>198.7631945757462</v>
       </c>
       <c r="K14" t="n">
-        <v>721.6335550411761</v>
+        <v>327.7227161533225</v>
       </c>
       <c r="L14" t="n">
-        <v>1332.005609201988</v>
+        <v>524.6101679091882</v>
       </c>
       <c r="M14" t="n">
-        <v>1880.067885154981</v>
+        <v>775.3548315822534</v>
       </c>
       <c r="N14" t="n">
-        <v>2139.483668010585</v>
+        <v>1420.999133271619</v>
       </c>
       <c r="O14" t="n">
-        <v>2371.107374348143</v>
+        <v>2029.615019059296</v>
       </c>
       <c r="P14" t="n">
-        <v>2534.291848044455</v>
+        <v>2511.380213845376</v>
       </c>
       <c r="Q14" t="n">
-        <v>2608.663845209559</v>
+        <v>2585.752211010479</v>
       </c>
       <c r="R14" t="n">
         <v>2608.663845209559</v>
       </c>
       <c r="S14" t="n">
-        <v>2608.663845209559</v>
+        <v>2539.134709015608</v>
       </c>
       <c r="T14" t="n">
-        <v>2608.663845209559</v>
+        <v>2404.169535748224</v>
       </c>
       <c r="U14" t="n">
-        <v>2433.20753182111</v>
+        <v>2228.713222359776</v>
       </c>
       <c r="V14" t="n">
-        <v>2433.20753182111</v>
+        <v>1975.855953180946</v>
       </c>
       <c r="W14" t="n">
-        <v>2433.20753182111</v>
+        <v>1850.293896133942</v>
       </c>
       <c r="X14" t="n">
-        <v>2433.20753182111</v>
+        <v>1555.033756037604</v>
       </c>
       <c r="Y14" t="n">
-        <v>2121.27381801004</v>
+        <v>1555.033756037604</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>956.6172836305898</v>
+        <v>956.6172836305907</v>
       </c>
       <c r="C15" t="n">
-        <v>782.1642543494628</v>
+        <v>782.1642543494637</v>
       </c>
       <c r="D15" t="n">
-        <v>633.2298446882115</v>
+        <v>633.2298446882124</v>
       </c>
       <c r="E15" t="n">
-        <v>473.992389682756</v>
+        <v>473.9923896827569</v>
       </c>
       <c r="F15" t="n">
-        <v>327.457831709641</v>
+        <v>327.4578317096419</v>
       </c>
       <c r="G15" t="n">
-        <v>190.2155498777781</v>
+        <v>190.215549877779</v>
       </c>
       <c r="H15" t="n">
-        <v>91.22261154552568</v>
+        <v>91.22261154552659</v>
       </c>
       <c r="I15" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="J15" t="n">
         <v>189.2702457891875</v>
       </c>
       <c r="K15" t="n">
-        <v>550.2116452123819</v>
+        <v>550.211645212382</v>
       </c>
       <c r="L15" t="n">
-        <v>817.5801031603223</v>
+        <v>1096.946295958967</v>
       </c>
       <c r="M15" t="n">
-        <v>1046.524861301909</v>
+        <v>1325.891054100553</v>
       </c>
       <c r="N15" t="n">
-        <v>1295.937750860861</v>
+        <v>1575.303943659506</v>
       </c>
       <c r="O15" t="n">
-        <v>1891.805718929464</v>
+        <v>1891.805718929465</v>
       </c>
       <c r="P15" t="n">
-        <v>2353.039228275137</v>
+        <v>2353.039228275138</v>
       </c>
       <c r="Q15" t="n">
         <v>2608.663845209559</v>
@@ -5385,22 +5385,22 @@
         <v>2454.146291745245</v>
       </c>
       <c r="T15" t="n">
-        <v>2257.959572345652</v>
+        <v>2257.959572345653</v>
       </c>
       <c r="U15" t="n">
-        <v>2029.833884581089</v>
+        <v>2029.83388458109</v>
       </c>
       <c r="V15" t="n">
-        <v>1794.681776349346</v>
+        <v>1794.681776349347</v>
       </c>
       <c r="W15" t="n">
         <v>1540.444419621145</v>
       </c>
       <c r="X15" t="n">
-        <v>1332.592919415612</v>
+        <v>1332.592919415613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1124.832620650658</v>
+        <v>1124.832620650659</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>497.7368395201769</v>
+        <v>559.2917659383796</v>
       </c>
       <c r="C16" t="n">
-        <v>407.0062747570117</v>
+        <v>468.5612011752144</v>
       </c>
       <c r="D16" t="n">
-        <v>335.0952535094177</v>
+        <v>396.6501799276203</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3877780917663</v>
+        <v>326.9427045099688</v>
       </c>
       <c r="F16" t="n">
-        <v>258.2583751768003</v>
+        <v>258.2583751768002</v>
       </c>
       <c r="G16" t="n">
-        <v>168.0240803423863</v>
+        <v>168.0240803423864</v>
       </c>
       <c r="H16" t="n">
-        <v>93.45923269180886</v>
+        <v>93.45923269180895</v>
       </c>
       <c r="I16" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="J16" t="n">
-        <v>122.8709509441442</v>
+        <v>122.8709509441439</v>
       </c>
       <c r="K16" t="n">
-        <v>319.576720978446</v>
+        <v>319.5767209784457</v>
       </c>
       <c r="L16" t="n">
-        <v>605.3833958567343</v>
+        <v>605.3833958567341</v>
       </c>
       <c r="M16" t="n">
-        <v>912.9489432993778</v>
+        <v>912.9489432993776</v>
       </c>
       <c r="N16" t="n">
         <v>1220.458435549738</v>
@@ -5458,28 +5458,28 @@
         <v>1809.980748398671</v>
       </c>
       <c r="R16" t="n">
-        <v>1765.214275273811</v>
+        <v>1765.21427527381</v>
       </c>
       <c r="S16" t="n">
-        <v>1638.888778277035</v>
+        <v>1700.443704695238</v>
       </c>
       <c r="T16" t="n">
-        <v>1492.178454686565</v>
+        <v>1553.733381104769</v>
       </c>
       <c r="U16" t="n">
-        <v>1281.241001811103</v>
+        <v>1342.795928229306</v>
       </c>
       <c r="V16" t="n">
-        <v>1104.762131769958</v>
+        <v>1166.317058188161</v>
       </c>
       <c r="W16" t="n">
-        <v>893.5505798977388</v>
+        <v>955.1055063159419</v>
       </c>
       <c r="X16" t="n">
-        <v>743.7666471644633</v>
+        <v>805.3215735826661</v>
       </c>
       <c r="Y16" t="n">
-        <v>601.1796861856749</v>
+        <v>662.7346126038776</v>
       </c>
     </row>
     <row r="17">
@@ -5495,43 +5495,43 @@
         <v>1169.298906679762</v>
       </c>
       <c r="D17" t="n">
-        <v>964.8415548618397</v>
+        <v>964.8415548618393</v>
       </c>
       <c r="E17" t="n">
-        <v>732.8616490524241</v>
+        <v>732.8616490524237</v>
       </c>
       <c r="F17" t="n">
-        <v>475.6840910516453</v>
+        <v>475.6840910516448</v>
       </c>
       <c r="G17" t="n">
         <v>212.7768023476407</v>
       </c>
       <c r="H17" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="I17" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="J17" t="n">
-        <v>104.3644259977937</v>
+        <v>271.7700750181468</v>
       </c>
       <c r="K17" t="n">
-        <v>554.2279060208231</v>
+        <v>721.6335550411761</v>
       </c>
       <c r="L17" t="n">
-        <v>751.1153577766888</v>
+        <v>1332.005609201988</v>
       </c>
       <c r="M17" t="n">
-        <v>1001.860021449754</v>
+        <v>1646.964410202596</v>
       </c>
       <c r="N17" t="n">
-        <v>1261.275804305357</v>
+        <v>1906.3801930582</v>
       </c>
       <c r="O17" t="n">
-        <v>1819.42317830599</v>
+        <v>2138.003899395758</v>
       </c>
       <c r="P17" t="n">
-        <v>2301.18837309207</v>
+        <v>2301.188373092071</v>
       </c>
       <c r="Q17" t="n">
         <v>2585.752211010479</v>
@@ -5589,28 +5589,28 @@
         <v>91.22261154552649</v>
       </c>
       <c r="I18" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="J18" t="n">
         <v>189.2702457891875</v>
       </c>
       <c r="K18" t="n">
-        <v>550.2116452123819</v>
+        <v>550.211645212382</v>
       </c>
       <c r="L18" t="n">
-        <v>817.5801031603223</v>
+        <v>1096.946295958967</v>
       </c>
       <c r="M18" t="n">
-        <v>1046.524861301909</v>
+        <v>1325.891054100553</v>
       </c>
       <c r="N18" t="n">
-        <v>1295.937750860861</v>
+        <v>1575.303943659506</v>
       </c>
       <c r="O18" t="n">
-        <v>1891.805718929464</v>
+        <v>1891.805718929465</v>
       </c>
       <c r="P18" t="n">
-        <v>2353.039228275137</v>
+        <v>2353.039228275138</v>
       </c>
       <c r="Q18" t="n">
         <v>2608.663845209559</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>241.813521015704</v>
+        <v>232.4654894772796</v>
       </c>
       <c r="C19" t="n">
-        <v>226.6856848766257</v>
+        <v>217.3376533382013</v>
       </c>
       <c r="D19" t="n">
-        <v>226.6856848766257</v>
+        <v>217.3376533382013</v>
       </c>
       <c r="E19" t="n">
-        <v>226.6856848766257</v>
+        <v>217.3376533382013</v>
       </c>
       <c r="F19" t="n">
-        <v>226.6856848766257</v>
+        <v>217.3376533382013</v>
       </c>
       <c r="G19" t="n">
-        <v>58.24577187746995</v>
+        <v>202.7060871278742</v>
       </c>
       <c r="H19" t="n">
-        <v>58.24577187746995</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="I19" t="n">
-        <v>58.24577187746995</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="J19" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="K19" t="n">
         <v>172.2297205752297</v>
@@ -5680,13 +5680,13 @@
         <v>381.3870690902547</v>
       </c>
       <c r="M19" t="n">
-        <v>612.3032901696347</v>
+        <v>612.3032901696349</v>
       </c>
       <c r="N19" t="n">
-        <v>843.163456056732</v>
+        <v>843.1634560567323</v>
       </c>
       <c r="O19" t="n">
-        <v>1040.3838895396</v>
+        <v>1040.383889539601</v>
       </c>
       <c r="P19" t="n">
         <v>1185.619359038021</v>
@@ -5698,25 +5698,25 @@
         <v>1202.737789815875</v>
       </c>
       <c r="S19" t="n">
-        <v>1007.554706192782</v>
+        <v>1152.015021443186</v>
       </c>
       <c r="T19" t="n">
-        <v>936.4471112263996</v>
+        <v>927.0990796879752</v>
       </c>
       <c r="U19" t="n">
-        <v>801.112386975024</v>
+        <v>791.7643554365997</v>
       </c>
       <c r="V19" t="n">
-        <v>700.2362455579658</v>
+        <v>537.0798672307128</v>
       </c>
       <c r="W19" t="n">
-        <v>564.6274223098338</v>
+        <v>401.4710439825808</v>
       </c>
       <c r="X19" t="n">
-        <v>490.4462182006451</v>
+        <v>327.2898398733921</v>
       </c>
       <c r="Y19" t="n">
-        <v>269.653639057115</v>
+        <v>260.3056075186906</v>
       </c>
     </row>
     <row r="20">
@@ -5732,46 +5732,46 @@
         <v>1169.298906679762</v>
       </c>
       <c r="D20" t="n">
-        <v>964.8415548618402</v>
+        <v>964.8415548618407</v>
       </c>
       <c r="E20" t="n">
-        <v>732.8616490524246</v>
+        <v>732.861649052425</v>
       </c>
       <c r="F20" t="n">
-        <v>475.6840910516457</v>
+        <v>475.6840910516462</v>
       </c>
       <c r="G20" t="n">
         <v>212.7768023476407</v>
       </c>
       <c r="H20" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="I20" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="J20" t="n">
-        <v>271.7700750181467</v>
+        <v>271.7700750181468</v>
       </c>
       <c r="K20" t="n">
         <v>721.6335550411761</v>
       </c>
       <c r="L20" t="n">
-        <v>918.5210067970419</v>
+        <v>1077.639025439763</v>
       </c>
       <c r="M20" t="n">
-        <v>1169.265670470107</v>
+        <v>1328.383689112829</v>
       </c>
       <c r="N20" t="n">
-        <v>1610.711106167511</v>
+        <v>1587.799471968432</v>
       </c>
       <c r="O20" t="n">
-        <v>1842.33481250507</v>
+        <v>1819.42317830599</v>
       </c>
       <c r="P20" t="n">
-        <v>2324.10000729115</v>
+        <v>2301.188373092071</v>
       </c>
       <c r="Q20" t="n">
-        <v>2608.663845209559</v>
+        <v>2585.752211010479</v>
       </c>
       <c r="R20" t="n">
         <v>2608.663845209559</v>
@@ -5780,22 +5780,22 @@
         <v>2608.663845209559</v>
       </c>
       <c r="T20" t="n">
-        <v>2549.301400566261</v>
+        <v>2549.301400566262</v>
       </c>
       <c r="U20" t="n">
-        <v>2449.4478158019</v>
+        <v>2449.447815801901</v>
       </c>
       <c r="V20" t="n">
         <v>2272.193275247158</v>
       </c>
       <c r="W20" t="n">
-        <v>2073.232966765872</v>
+        <v>2073.232966765873</v>
       </c>
       <c r="X20" t="n">
-        <v>1853.575555293621</v>
+        <v>1853.575555293622</v>
       </c>
       <c r="Y20" t="n">
-        <v>1617.244570106638</v>
+        <v>1617.244570106639</v>
       </c>
     </row>
     <row r="21">
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>956.6172836305905</v>
+        <v>956.6172836305907</v>
       </c>
       <c r="C21" t="n">
-        <v>782.1642543494635</v>
+        <v>782.1642543494637</v>
       </c>
       <c r="D21" t="n">
-        <v>633.2298446882123</v>
+        <v>633.2298446882124</v>
       </c>
       <c r="E21" t="n">
-        <v>473.9923896827568</v>
+        <v>473.9923896827569</v>
       </c>
       <c r="F21" t="n">
-        <v>327.4578317096418</v>
+        <v>327.4578317096419</v>
       </c>
       <c r="G21" t="n">
-        <v>190.2155498777788</v>
+        <v>190.2155498777789</v>
       </c>
       <c r="H21" t="n">
         <v>91.22261154552649</v>
       </c>
       <c r="I21" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="J21" t="n">
         <v>189.2702457891875</v>
       </c>
       <c r="K21" t="n">
-        <v>550.2116452123819</v>
+        <v>550.211645212382</v>
       </c>
       <c r="L21" t="n">
         <v>1096.946295958967</v>
@@ -5841,13 +5841,13 @@
         <v>1325.891054100553</v>
       </c>
       <c r="N21" t="n">
-        <v>1575.303943659505</v>
+        <v>1575.303943659506</v>
       </c>
       <c r="O21" t="n">
-        <v>1891.805718929464</v>
+        <v>1891.805718929465</v>
       </c>
       <c r="P21" t="n">
-        <v>2353.039228275137</v>
+        <v>2353.039228275138</v>
       </c>
       <c r="Q21" t="n">
         <v>2608.663845209559</v>
@@ -5871,7 +5871,7 @@
         <v>1540.444419621145</v>
       </c>
       <c r="X21" t="n">
-        <v>1332.592919415612</v>
+        <v>1332.592919415613</v>
       </c>
       <c r="Y21" t="n">
         <v>1124.832620650659</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.7410260424252</v>
+        <v>81.93267925359653</v>
       </c>
       <c r="C22" t="n">
-        <v>220.6131899033469</v>
+        <v>66.80484311451828</v>
       </c>
       <c r="D22" t="n">
-        <v>220.6131899033469</v>
+        <v>66.80484311451828</v>
       </c>
       <c r="E22" t="n">
-        <v>220.6131899033469</v>
+        <v>66.80484311451828</v>
       </c>
       <c r="F22" t="n">
-        <v>220.6131899033469</v>
+        <v>66.80484311451828</v>
       </c>
       <c r="G22" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="H22" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="I22" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="J22" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="K22" t="n">
         <v>172.2297205752297</v>
@@ -5917,13 +5917,13 @@
         <v>381.3870690902547</v>
       </c>
       <c r="M22" t="n">
-        <v>612.3032901696347</v>
+        <v>612.3032901696349</v>
       </c>
       <c r="N22" t="n">
-        <v>843.163456056732</v>
+        <v>843.1634560567323</v>
       </c>
       <c r="O22" t="n">
-        <v>1040.3838895396</v>
+        <v>1040.383889539601</v>
       </c>
       <c r="P22" t="n">
         <v>1185.619359038021</v>
@@ -5932,28 +5932,28 @@
         <v>1202.737789815875</v>
       </c>
       <c r="R22" t="n">
-        <v>1202.737789815875</v>
+        <v>1079.765698526273</v>
       </c>
       <c r="S22" t="n">
-        <v>1152.015021443186</v>
+        <v>875.234583364756</v>
       </c>
       <c r="T22" t="n">
-        <v>1080.907426476803</v>
+        <v>650.3186416095447</v>
       </c>
       <c r="U22" t="n">
-        <v>945.5727022254277</v>
+        <v>487.423198424088</v>
       </c>
       <c r="V22" t="n">
-        <v>844.6965608083696</v>
+        <v>386.5470570070297</v>
       </c>
       <c r="W22" t="n">
-        <v>709.0877375602375</v>
+        <v>250.9382337588977</v>
       </c>
       <c r="X22" t="n">
-        <v>484.3737232273663</v>
+        <v>176.757029649709</v>
       </c>
       <c r="Y22" t="n">
-        <v>263.5811440838363</v>
+        <v>109.7727972950076</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1384.453076831343</v>
+        <v>1384.453076831345</v>
       </c>
       <c r="C23" t="n">
-        <v>1169.29890667976</v>
+        <v>1169.298906679762</v>
       </c>
       <c r="D23" t="n">
-        <v>964.8415548618382</v>
+        <v>964.8415548618397</v>
       </c>
       <c r="E23" t="n">
-        <v>732.8616490524228</v>
+        <v>732.8616490524241</v>
       </c>
       <c r="F23" t="n">
-        <v>475.6840910516439</v>
+        <v>475.6840910516453</v>
       </c>
       <c r="G23" t="n">
         <v>212.7768023476407</v>
       </c>
       <c r="H23" t="n">
-        <v>52.17327690419113</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="I23" t="n">
-        <v>52.17327690419113</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="J23" t="n">
-        <v>271.7700750181467</v>
+        <v>271.7700750181468</v>
       </c>
       <c r="K23" t="n">
-        <v>400.7295965957229</v>
+        <v>503.7593942337797</v>
       </c>
       <c r="L23" t="n">
-        <v>1011.101650756535</v>
+        <v>700.6468459896455</v>
       </c>
       <c r="M23" t="n">
-        <v>1261.8463144296</v>
+        <v>951.3915096627106</v>
       </c>
       <c r="N23" t="n">
-        <v>1521.262097285203</v>
+        <v>1210.807292518314</v>
       </c>
       <c r="O23" t="n">
-        <v>2129.877983072879</v>
+        <v>1819.42317830599</v>
       </c>
       <c r="P23" t="n">
-        <v>2324.100007291148</v>
+        <v>2301.188373092071</v>
       </c>
       <c r="Q23" t="n">
-        <v>2608.663845209557</v>
+        <v>2585.752211010479</v>
       </c>
       <c r="R23" t="n">
-        <v>2608.663845209557</v>
+        <v>2608.663845209559</v>
       </c>
       <c r="S23" t="n">
-        <v>2608.663845209557</v>
+        <v>2608.663845209559</v>
       </c>
       <c r="T23" t="n">
-        <v>2549.301400566259</v>
+        <v>2549.301400566261</v>
       </c>
       <c r="U23" t="n">
-        <v>2449.447815801898</v>
+        <v>2449.4478158019</v>
       </c>
       <c r="V23" t="n">
-        <v>2272.193275247156</v>
+        <v>2272.193275247158</v>
       </c>
       <c r="W23" t="n">
-        <v>2073.232966765871</v>
+        <v>2073.232966765872</v>
       </c>
       <c r="X23" t="n">
-        <v>1853.575555293619</v>
+        <v>1853.575555293621</v>
       </c>
       <c r="Y23" t="n">
-        <v>1617.244570106636</v>
+        <v>1617.244570106638</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>956.617283630588</v>
+        <v>956.61728363059</v>
       </c>
       <c r="C24" t="n">
-        <v>782.164254349461</v>
+        <v>782.164254349463</v>
       </c>
       <c r="D24" t="n">
-        <v>633.2298446882097</v>
+        <v>633.2298446882119</v>
       </c>
       <c r="E24" t="n">
-        <v>473.9923896827542</v>
+        <v>473.9923896827563</v>
       </c>
       <c r="F24" t="n">
-        <v>327.4578317096392</v>
+        <v>327.4578317096414</v>
       </c>
       <c r="G24" t="n">
-        <v>190.2155498777763</v>
+        <v>190.2155498777788</v>
       </c>
       <c r="H24" t="n">
-        <v>91.22261154552386</v>
+        <v>91.22261154552649</v>
       </c>
       <c r="I24" t="n">
-        <v>52.17327690419113</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="J24" t="n">
-        <v>64.44012080218269</v>
+        <v>189.2702457891875</v>
       </c>
       <c r="K24" t="n">
-        <v>163.5609355829243</v>
+        <v>550.211645212382</v>
       </c>
       <c r="L24" t="n">
-        <v>343.1636444790844</v>
+        <v>1096.946295958967</v>
       </c>
       <c r="M24" t="n">
-        <v>988.8079461684497</v>
+        <v>1355.495286208996</v>
       </c>
       <c r="N24" t="n">
-        <v>1295.937750860859</v>
+        <v>2001.139587898361</v>
       </c>
       <c r="O24" t="n">
-        <v>1891.805718929462</v>
+        <v>2207.083859883002</v>
       </c>
       <c r="P24" t="n">
-        <v>2353.039228275135</v>
+        <v>2353.039228275138</v>
       </c>
       <c r="Q24" t="n">
-        <v>2608.663845209557</v>
+        <v>2608.663845209559</v>
       </c>
       <c r="R24" t="n">
-        <v>2599.914592063506</v>
+        <v>2599.914592063508</v>
       </c>
       <c r="S24" t="n">
-        <v>2454.146291745243</v>
+        <v>2454.146291745245</v>
       </c>
       <c r="T24" t="n">
-        <v>2257.95957234565</v>
+        <v>2257.959572345653</v>
       </c>
       <c r="U24" t="n">
-        <v>2029.833884581087</v>
+        <v>2029.833884581089</v>
       </c>
       <c r="V24" t="n">
-        <v>1794.681776349344</v>
+        <v>1794.681776349347</v>
       </c>
       <c r="W24" t="n">
-        <v>1540.444419621143</v>
+        <v>1540.444419621145</v>
       </c>
       <c r="X24" t="n">
-        <v>1332.59291941561</v>
+        <v>1332.592919415612</v>
       </c>
       <c r="Y24" t="n">
-        <v>1124.832620650656</v>
+        <v>1124.832620650658</v>
       </c>
     </row>
     <row r="25">
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>232.4654894772791</v>
+        <v>81.93267925359653</v>
       </c>
       <c r="C25" t="n">
-        <v>217.3376533382009</v>
+        <v>66.80484311451828</v>
       </c>
       <c r="D25" t="n">
-        <v>217.3376533382009</v>
+        <v>66.80484311451828</v>
       </c>
       <c r="E25" t="n">
-        <v>217.3376533382009</v>
+        <v>66.80484311451828</v>
       </c>
       <c r="F25" t="n">
-        <v>217.3376533382009</v>
+        <v>66.80484311451828</v>
       </c>
       <c r="G25" t="n">
-        <v>52.17327690419113</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="H25" t="n">
-        <v>52.17327690419113</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="I25" t="n">
-        <v>52.17327690419113</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="J25" t="n">
-        <v>52.17327690419113</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="K25" t="n">
-        <v>172.2297205752296</v>
+        <v>172.2297205752297</v>
       </c>
       <c r="L25" t="n">
-        <v>381.3870690902546</v>
+        <v>381.3870690902547</v>
       </c>
       <c r="M25" t="n">
-        <v>612.3032901696347</v>
+        <v>612.3032901696349</v>
       </c>
       <c r="N25" t="n">
-        <v>843.163456056732</v>
+        <v>843.1634560567323</v>
       </c>
       <c r="O25" t="n">
-        <v>1040.3838895396</v>
+        <v>1040.383889539601</v>
       </c>
       <c r="P25" t="n">
         <v>1185.619359038021</v>
@@ -6175,22 +6175,22 @@
         <v>1152.015021443186</v>
       </c>
       <c r="T25" t="n">
-        <v>1080.907426476803</v>
+        <v>1080.907426476804</v>
       </c>
       <c r="U25" t="n">
-        <v>945.5727022254277</v>
+        <v>795.0398920017452</v>
       </c>
       <c r="V25" t="n">
-        <v>690.8882140195409</v>
+        <v>540.3554037958584</v>
       </c>
       <c r="W25" t="n">
-        <v>401.4710439825803</v>
+        <v>250.9382337588977</v>
       </c>
       <c r="X25" t="n">
-        <v>327.2898398733916</v>
+        <v>176.757029649709</v>
       </c>
       <c r="Y25" t="n">
-        <v>260.3056075186902</v>
+        <v>109.7727972950076</v>
       </c>
     </row>
     <row r="26">
@@ -6206,19 +6206,19 @@
         <v>1580.201569095985</v>
       </c>
       <c r="D26" t="n">
-        <v>1302.723403959596</v>
+        <v>1302.723403959595</v>
       </c>
       <c r="E26" t="n">
-        <v>997.7226848317119</v>
+        <v>997.7226848317116</v>
       </c>
       <c r="F26" t="n">
-        <v>667.5243135124651</v>
+        <v>667.5243135124647</v>
       </c>
       <c r="G26" t="n">
-        <v>331.5962114899931</v>
+        <v>331.596211489993</v>
       </c>
       <c r="H26" t="n">
-        <v>97.97187272807568</v>
+        <v>97.97187272807571</v>
       </c>
       <c r="I26" t="n">
         <v>73.41360470123715</v>
@@ -6227,25 +6227,25 @@
         <v>293.0104028151927</v>
       </c>
       <c r="K26" t="n">
-        <v>421.969924392769</v>
+        <v>651.2915078054815</v>
       </c>
       <c r="L26" t="n">
-        <v>1032.341978553581</v>
+        <v>1261.663561966293</v>
       </c>
       <c r="M26" t="n">
-        <v>1728.10504038455</v>
+        <v>1957.426623797262</v>
       </c>
       <c r="N26" t="n">
-        <v>2420.494278408018</v>
+        <v>2649.81586182073</v>
       </c>
       <c r="O26" t="n">
-        <v>3029.110164195694</v>
+        <v>2881.439568158288</v>
       </c>
       <c r="P26" t="n">
-        <v>3386.116397143449</v>
+        <v>3363.204762944369</v>
       </c>
       <c r="Q26" t="n">
-        <v>3670.680235061857</v>
+        <v>3647.768600862777</v>
       </c>
       <c r="R26" t="n">
         <v>3670.680235061857</v>
@@ -6303,10 +6303,10 @@
         <v>73.41360470123715</v>
       </c>
       <c r="J27" t="n">
-        <v>210.5105735862334</v>
+        <v>210.5105735862335</v>
       </c>
       <c r="K27" t="n">
-        <v>571.4519730094279</v>
+        <v>571.451973009428</v>
       </c>
       <c r="L27" t="n">
         <v>1118.186623756013</v>
@@ -6315,13 +6315,13 @@
         <v>1347.131381897599</v>
       </c>
       <c r="N27" t="n">
-        <v>1596.544271456551</v>
+        <v>1596.544271456552</v>
       </c>
       <c r="O27" t="n">
-        <v>1913.046046726511</v>
+        <v>1913.04604672651</v>
       </c>
       <c r="P27" t="n">
-        <v>2374.279556072184</v>
+        <v>2374.279556072183</v>
       </c>
       <c r="Q27" t="n">
         <v>2629.904173006605</v>
@@ -6330,7 +6330,7 @@
         <v>2621.154919860554</v>
       </c>
       <c r="S27" t="n">
-        <v>2475.386619542292</v>
+        <v>2475.386619542291</v>
       </c>
       <c r="T27" t="n">
         <v>2279.199900142699</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>562.4586865960922</v>
+        <v>562.458686596092</v>
       </c>
       <c r="C28" t="n">
-        <v>474.3100371385461</v>
+        <v>474.3100371385457</v>
       </c>
       <c r="D28" t="n">
-        <v>404.9809311965711</v>
+        <v>404.9809311965707</v>
       </c>
       <c r="E28" t="n">
-        <v>337.8553710845388</v>
+        <v>337.8553710845384</v>
       </c>
       <c r="F28" t="n">
-        <v>271.7529570569892</v>
+        <v>271.7529570569887</v>
       </c>
       <c r="G28" t="n">
-        <v>184.1005775281942</v>
+        <v>184.1005775281937</v>
       </c>
       <c r="H28" t="n">
-        <v>112.1176451832358</v>
+        <v>112.1176451832353</v>
       </c>
       <c r="I28" t="n">
         <v>73.41360470123715</v>
       </c>
       <c r="J28" t="n">
-        <v>146.6418139322271</v>
+        <v>146.6418139322268</v>
       </c>
       <c r="K28" t="n">
-        <v>345.8781191575662</v>
+        <v>345.8781191575658</v>
       </c>
       <c r="L28" t="n">
-        <v>634.2153292268918</v>
+        <v>634.2153292268913</v>
       </c>
       <c r="M28" t="n">
-        <v>944.3114118605724</v>
+        <v>944.311411860572</v>
       </c>
       <c r="N28" t="n">
         <v>1254.35143930197</v>
       </c>
       <c r="O28" t="n">
-        <v>1530.75173433914</v>
+        <v>1530.751734339139</v>
       </c>
       <c r="P28" t="n">
         <v>1755.16706539186</v>
@@ -6406,7 +6406,7 @@
         <v>1851.465357724015</v>
       </c>
       <c r="R28" t="n">
-        <v>1809.280799904774</v>
+        <v>1809.280799904773</v>
       </c>
       <c r="S28" t="n">
         <v>1685.537218213617</v>
@@ -6421,13 +6421,13 @@
         <v>1159.156317623397</v>
       </c>
       <c r="W28" t="n">
-        <v>950.5266810567971</v>
+        <v>950.526681056797</v>
       </c>
       <c r="X28" t="n">
-        <v>803.3246636291406</v>
+        <v>803.3246636291403</v>
       </c>
       <c r="Y28" t="n">
-        <v>663.3196179559711</v>
+        <v>663.319617955971</v>
       </c>
     </row>
     <row r="29">
@@ -6437,61 +6437,61 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1868.376552566036</v>
+        <v>1868.376552566035</v>
       </c>
       <c r="C29" t="n">
-        <v>1580.201569095985</v>
+        <v>1580.201569095984</v>
       </c>
       <c r="D29" t="n">
         <v>1302.723403959595</v>
       </c>
       <c r="E29" t="n">
-        <v>997.7226848317115</v>
+        <v>997.7226848317111</v>
       </c>
       <c r="F29" t="n">
-        <v>667.5243135124647</v>
+        <v>667.5243135124643</v>
       </c>
       <c r="G29" t="n">
-        <v>331.596211489993</v>
+        <v>331.5962114899921</v>
       </c>
       <c r="H29" t="n">
-        <v>97.97187272807567</v>
+        <v>97.97187272807564</v>
       </c>
       <c r="I29" t="n">
         <v>73.41360470123713</v>
       </c>
       <c r="J29" t="n">
-        <v>293.0104028151927</v>
+        <v>125.6047537948397</v>
       </c>
       <c r="K29" t="n">
-        <v>742.8738828382221</v>
+        <v>274.2993283553627</v>
       </c>
       <c r="L29" t="n">
-        <v>1353.245936999034</v>
+        <v>884.6713825161744</v>
       </c>
       <c r="M29" t="n">
-        <v>2049.008998830003</v>
+        <v>1580.434444347144</v>
       </c>
       <c r="N29" t="n">
-        <v>2741.398236853471</v>
+        <v>2272.823682370611</v>
       </c>
       <c r="O29" t="n">
-        <v>3350.014122641147</v>
+        <v>2881.439568158287</v>
       </c>
       <c r="P29" t="n">
-        <v>3513.19859633746</v>
+        <v>3363.204762944368</v>
       </c>
       <c r="Q29" t="n">
-        <v>3670.680235061857</v>
+        <v>3647.768600862777</v>
       </c>
       <c r="R29" t="n">
-        <v>3670.680235061857</v>
+        <v>3670.680235061856</v>
       </c>
       <c r="S29" t="n">
         <v>3603.733014173525</v>
       </c>
       <c r="T29" t="n">
-        <v>3471.34975621176</v>
+        <v>3471.349756211759</v>
       </c>
       <c r="U29" t="n">
         <v>3298.47535812893</v>
@@ -6500,13 +6500,13 @@
         <v>3048.20000425572</v>
       </c>
       <c r="W29" t="n">
-        <v>2776.218882455967</v>
+        <v>2776.218882455966</v>
       </c>
       <c r="X29" t="n">
-        <v>2483.540657665248</v>
+        <v>2483.540657665247</v>
       </c>
       <c r="Y29" t="n">
-        <v>2174.188859159797</v>
+        <v>2174.188859159796</v>
       </c>
     </row>
     <row r="30">
@@ -6549,10 +6549,10 @@
         <v>1118.186623756013</v>
       </c>
       <c r="M30" t="n">
-        <v>1457.688885182917</v>
+        <v>1347.131381897599</v>
       </c>
       <c r="N30" t="n">
-        <v>1707.101774741869</v>
+        <v>1596.544271456552</v>
       </c>
       <c r="O30" t="n">
         <v>1913.04604672651</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>562.4586865960919</v>
+        <v>562.4586865960922</v>
       </c>
       <c r="C31" t="n">
-        <v>474.3100371385457</v>
+        <v>474.3100371385461</v>
       </c>
       <c r="D31" t="n">
-        <v>404.9809311965707</v>
+        <v>404.9809311965711</v>
       </c>
       <c r="E31" t="n">
-        <v>337.8553710845384</v>
+        <v>337.8553710845388</v>
       </c>
       <c r="F31" t="n">
-        <v>271.7529570569887</v>
+        <v>271.7529570569891</v>
       </c>
       <c r="G31" t="n">
-        <v>184.1005775281938</v>
+        <v>184.1005775281942</v>
       </c>
       <c r="H31" t="n">
         <v>112.1176451832358</v>
@@ -6622,19 +6622,19 @@
         <v>146.6418139322272</v>
       </c>
       <c r="K31" t="n">
-        <v>345.8781191575662</v>
+        <v>345.8781191575666</v>
       </c>
       <c r="L31" t="n">
-        <v>634.2153292268915</v>
+        <v>634.2153292268918</v>
       </c>
       <c r="M31" t="n">
-        <v>944.3114118605723</v>
+        <v>944.3114118605724</v>
       </c>
       <c r="N31" t="n">
         <v>1254.35143930197</v>
       </c>
       <c r="O31" t="n">
-        <v>1530.751734339139</v>
+        <v>1530.75173433914</v>
       </c>
       <c r="P31" t="n">
         <v>1755.16706539186</v>
@@ -6655,16 +6655,16 @@
         <v>1333.053272358923</v>
       </c>
       <c r="V31" t="n">
-        <v>1159.156317623396</v>
+        <v>1159.156317623397</v>
       </c>
       <c r="W31" t="n">
-        <v>950.5266810567966</v>
+        <v>950.5266810567971</v>
       </c>
       <c r="X31" t="n">
-        <v>803.3246636291401</v>
+        <v>803.3246636291404</v>
       </c>
       <c r="Y31" t="n">
-        <v>663.3196179559708</v>
+        <v>663.3196179559711</v>
       </c>
     </row>
     <row r="32">
@@ -6680,49 +6680,49 @@
         <v>1580.201569095985</v>
       </c>
       <c r="D32" t="n">
-        <v>1302.723403959595</v>
+        <v>1302.723403959596</v>
       </c>
       <c r="E32" t="n">
-        <v>997.7226848317118</v>
+        <v>997.7226848317121</v>
       </c>
       <c r="F32" t="n">
-        <v>667.5243135124651</v>
+        <v>667.5243135124653</v>
       </c>
       <c r="G32" t="n">
-        <v>331.5962114899932</v>
+        <v>331.5962114899931</v>
       </c>
       <c r="H32" t="n">
-        <v>97.97187272807572</v>
+        <v>97.97187272807567</v>
       </c>
       <c r="I32" t="n">
-        <v>73.41360470123715</v>
+        <v>73.41360470123713</v>
       </c>
       <c r="J32" t="n">
         <v>293.0104028151927</v>
       </c>
       <c r="K32" t="n">
-        <v>421.969924392769</v>
+        <v>742.8738828382221</v>
       </c>
       <c r="L32" t="n">
-        <v>1032.341978553581</v>
+        <v>1226.163737805022</v>
       </c>
       <c r="M32" t="n">
-        <v>1728.10504038455</v>
+        <v>1921.926799635991</v>
       </c>
       <c r="N32" t="n">
-        <v>2420.494278408018</v>
+        <v>2614.316037659459</v>
       </c>
       <c r="O32" t="n">
-        <v>2881.439568158289</v>
+        <v>3222.931923447135</v>
       </c>
       <c r="P32" t="n">
-        <v>3363.204762944369</v>
+        <v>3386.116397143448</v>
       </c>
       <c r="Q32" t="n">
-        <v>3647.768600862777</v>
+        <v>3670.680235061856</v>
       </c>
       <c r="R32" t="n">
-        <v>3670.680235061857</v>
+        <v>3670.680235061856</v>
       </c>
       <c r="S32" t="n">
         <v>3603.733014173525</v>
@@ -6753,49 +6753,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>977.8576114276367</v>
+        <v>977.8576114276365</v>
       </c>
       <c r="C33" t="n">
-        <v>803.4045821465097</v>
+        <v>803.4045821465095</v>
       </c>
       <c r="D33" t="n">
-        <v>654.4701724852584</v>
+        <v>654.4701724852582</v>
       </c>
       <c r="E33" t="n">
-        <v>495.2327174798029</v>
+        <v>495.2327174798028</v>
       </c>
       <c r="F33" t="n">
         <v>348.6981595066878</v>
       </c>
       <c r="G33" t="n">
-        <v>211.4558776748249</v>
+        <v>211.4558776748248</v>
       </c>
       <c r="H33" t="n">
-        <v>112.4629393425725</v>
+        <v>112.4629393425724</v>
       </c>
       <c r="I33" t="n">
-        <v>73.41360470123715</v>
+        <v>73.41360470123713</v>
       </c>
       <c r="J33" t="n">
-        <v>210.5105735862334</v>
+        <v>210.5105735862335</v>
       </c>
       <c r="K33" t="n">
-        <v>571.4519730094279</v>
+        <v>571.451973009428</v>
       </c>
       <c r="L33" t="n">
         <v>1118.186623756013</v>
       </c>
       <c r="M33" t="n">
-        <v>1457.688885182918</v>
+        <v>1808.179395010099</v>
       </c>
       <c r="N33" t="n">
-        <v>1707.10177474187</v>
+        <v>2230.356430553897</v>
       </c>
       <c r="O33" t="n">
-        <v>1913.046046726511</v>
+        <v>2436.300702538538</v>
       </c>
       <c r="P33" t="n">
-        <v>2374.279556072184</v>
+        <v>2582.256070930674</v>
       </c>
       <c r="Q33" t="n">
         <v>2629.904173006605</v>
@@ -6804,7 +6804,7 @@
         <v>2621.154919860554</v>
       </c>
       <c r="S33" t="n">
-        <v>2475.386619542292</v>
+        <v>2475.386619542291</v>
       </c>
       <c r="T33" t="n">
         <v>2279.199900142699</v>
@@ -6819,10 +6819,10 @@
         <v>1561.684747418191</v>
       </c>
       <c r="X33" t="n">
-        <v>1353.833247212659</v>
+        <v>1353.833247212658</v>
       </c>
       <c r="Y33" t="n">
-        <v>1146.072948447705</v>
+        <v>1146.072948447704</v>
       </c>
     </row>
     <row r="34">
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>562.4586865960912</v>
+        <v>562.4586865960922</v>
       </c>
       <c r="C34" t="n">
-        <v>474.3100371385449</v>
+        <v>474.3100371385461</v>
       </c>
       <c r="D34" t="n">
-        <v>404.9809311965699</v>
+        <v>404.9809311965711</v>
       </c>
       <c r="E34" t="n">
-        <v>337.8553710845375</v>
+        <v>337.8553710845388</v>
       </c>
       <c r="F34" t="n">
-        <v>271.7529570569879</v>
+        <v>271.7529570569892</v>
       </c>
       <c r="G34" t="n">
-        <v>184.1005775281928</v>
+        <v>184.1005775281942</v>
       </c>
       <c r="H34" t="n">
-        <v>112.1176451832359</v>
+        <v>112.1176451832358</v>
       </c>
       <c r="I34" t="n">
-        <v>73.41360470123715</v>
+        <v>73.41360470123713</v>
       </c>
       <c r="J34" t="n">
-        <v>146.641813932227</v>
+        <v>146.6418139322271</v>
       </c>
       <c r="K34" t="n">
-        <v>345.8781191575661</v>
+        <v>345.8781191575659</v>
       </c>
       <c r="L34" t="n">
         <v>634.2153292268915</v>
       </c>
       <c r="M34" t="n">
-        <v>944.3114118605722</v>
+        <v>944.3114118605721</v>
       </c>
       <c r="N34" t="n">
         <v>1254.35143930197</v>
@@ -6883,25 +6883,25 @@
         <v>1809.280799904773</v>
       </c>
       <c r="S34" t="n">
-        <v>1685.537218213616</v>
+        <v>1685.537218213617</v>
       </c>
       <c r="T34" t="n">
         <v>1541.408809928766</v>
       </c>
       <c r="U34" t="n">
-        <v>1333.053272358922</v>
+        <v>1333.053272358923</v>
       </c>
       <c r="V34" t="n">
-        <v>1159.156317623396</v>
+        <v>1159.156317623397</v>
       </c>
       <c r="W34" t="n">
-        <v>950.5266810567961</v>
+        <v>950.5266810567971</v>
       </c>
       <c r="X34" t="n">
-        <v>803.3246636291396</v>
+        <v>803.3246636291404</v>
       </c>
       <c r="Y34" t="n">
-        <v>663.3196179559702</v>
+        <v>663.3196179559711</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1425.334123783881</v>
       </c>
       <c r="D35" t="n">
-        <v>1172.41422667433</v>
+        <v>1172.414226674329</v>
       </c>
       <c r="E35" t="n">
-        <v>891.971775573285</v>
+        <v>891.9717755732846</v>
       </c>
       <c r="F35" t="n">
-        <v>586.3316722808768</v>
+        <v>586.3316722808763</v>
       </c>
       <c r="G35" t="n">
         <v>274.9618382852429</v>
@@ -6935,28 +6935,28 @@
         <v>65.89576755016411</v>
       </c>
       <c r="J35" t="n">
-        <v>118.0869166437666</v>
+        <v>285.4925656641197</v>
       </c>
       <c r="K35" t="n">
-        <v>567.950396666796</v>
+        <v>735.3560456871492</v>
       </c>
       <c r="L35" t="n">
-        <v>1178.322450827608</v>
+        <v>1345.728099847961</v>
       </c>
       <c r="M35" t="n">
-        <v>1429.067114500673</v>
+        <v>2041.49116167893</v>
       </c>
       <c r="N35" t="n">
-        <v>2121.45635252414</v>
+        <v>2300.906944534534</v>
       </c>
       <c r="O35" t="n">
-        <v>2730.072238311816</v>
+        <v>2532.530650872092</v>
       </c>
       <c r="P35" t="n">
-        <v>3211.837433097897</v>
+        <v>2987.312905390717</v>
       </c>
       <c r="Q35" t="n">
-        <v>3294.788377508205</v>
+        <v>3271.876743309126</v>
       </c>
       <c r="R35" t="n">
         <v>3294.788377508205</v>
@@ -7002,10 +7002,10 @@
         <v>487.7148803287298</v>
       </c>
       <c r="F36" t="n">
-        <v>341.1803223556148</v>
+        <v>341.1803223556147</v>
       </c>
       <c r="G36" t="n">
-        <v>203.9380405237519</v>
+        <v>203.9380405237518</v>
       </c>
       <c r="H36" t="n">
         <v>104.9451021914994</v>
@@ -7014,22 +7014,22 @@
         <v>65.89576755016411</v>
       </c>
       <c r="J36" t="n">
-        <v>202.9927364351604</v>
+        <v>202.9927364351605</v>
       </c>
       <c r="K36" t="n">
-        <v>563.9341358583548</v>
+        <v>563.9341358583549</v>
       </c>
       <c r="L36" t="n">
-        <v>743.536844754515</v>
+        <v>1110.66878660494</v>
       </c>
       <c r="M36" t="n">
-        <v>972.4816028961015</v>
+        <v>1339.613544746526</v>
       </c>
       <c r="N36" t="n">
-        <v>1696.443443055172</v>
+        <v>1589.026434305478</v>
       </c>
       <c r="O36" t="n">
-        <v>1905.528209575438</v>
+        <v>1905.528209575437</v>
       </c>
       <c r="P36" t="n">
         <v>2366.761718921111</v>
@@ -7038,10 +7038,10 @@
         <v>2622.386335855532</v>
       </c>
       <c r="R36" t="n">
-        <v>2613.637082709482</v>
+        <v>2613.637082709481</v>
       </c>
       <c r="S36" t="n">
-        <v>2467.868782391219</v>
+        <v>2467.868782391218</v>
       </c>
       <c r="T36" t="n">
         <v>2271.682062991626</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>383.0329732571492</v>
+        <v>383.0329732571495</v>
       </c>
       <c r="C37" t="n">
-        <v>319.4425918264416</v>
+        <v>319.4425918264419</v>
       </c>
       <c r="D37" t="n">
-        <v>274.6717539113052</v>
+        <v>274.6717539113054</v>
       </c>
       <c r="E37" t="n">
-        <v>232.1044618261115</v>
+        <v>232.1044618261116</v>
       </c>
       <c r="F37" t="n">
-        <v>190.5603158254004</v>
+        <v>190.5603158254006</v>
       </c>
       <c r="G37" t="n">
-        <v>127.466204323444</v>
+        <v>127.4662043234441</v>
       </c>
       <c r="H37" t="n">
-        <v>80.04154000532421</v>
+        <v>80.04154000532424</v>
       </c>
       <c r="I37" t="n">
         <v>65.89576755016411</v>
       </c>
       <c r="J37" t="n">
-        <v>65.89576755016411</v>
+        <v>163.1935352742586</v>
       </c>
       <c r="K37" t="n">
-        <v>185.9522112212026</v>
+        <v>283.2499789452971</v>
       </c>
       <c r="L37" t="n">
-        <v>395.1095597362277</v>
+        <v>492.4073274603222</v>
       </c>
       <c r="M37" t="n">
-        <v>626.0257808156077</v>
+        <v>826.5729685871073</v>
       </c>
       <c r="N37" t="n">
-        <v>856.885946702705</v>
+        <v>1091.440898384383</v>
       </c>
       <c r="O37" t="n">
-        <v>1082.16249177244</v>
+        <v>1288.661331867251</v>
       </c>
       <c r="P37" t="n">
-        <v>1330.647381318266</v>
+        <v>1433.896801365672</v>
       </c>
       <c r="Q37" t="n">
-        <v>1451.015232143525</v>
+        <v>1451.015232143526</v>
       </c>
       <c r="R37" t="n">
-        <v>1433.388942351122</v>
+        <v>1433.388942351123</v>
       </c>
       <c r="S37" t="n">
-        <v>1334.203628686804</v>
+        <v>1334.203628686805</v>
       </c>
       <c r="T37" t="n">
-        <v>1214.633488428792</v>
+        <v>1214.633488428793</v>
       </c>
       <c r="U37" t="n">
-        <v>1030.836218885787</v>
+        <v>1030.836218885788</v>
       </c>
       <c r="V37" t="n">
-        <v>881.4975321770996</v>
+        <v>881.4975321771001</v>
       </c>
       <c r="W37" t="n">
-        <v>697.4261636373384</v>
+        <v>697.4261636373387</v>
       </c>
       <c r="X37" t="n">
-        <v>574.7824142365204</v>
+        <v>574.7824142365207</v>
       </c>
       <c r="Y37" t="n">
-        <v>459.3356365901896</v>
+        <v>459.3356365901899</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7163,7 @@
         <v>586.3316722808768</v>
       </c>
       <c r="G38" t="n">
-        <v>274.9618382852429</v>
+        <v>274.9618382852432</v>
       </c>
       <c r="H38" t="n">
         <v>65.89576755016411</v>
@@ -7172,16 +7172,16 @@
         <v>65.89576755016411</v>
       </c>
       <c r="J38" t="n">
-        <v>285.4925656641196</v>
+        <v>285.4925656641197</v>
       </c>
       <c r="K38" t="n">
-        <v>735.3560456871489</v>
+        <v>735.3560456871492</v>
       </c>
       <c r="L38" t="n">
-        <v>1345.72809984796</v>
+        <v>932.2434974430149</v>
       </c>
       <c r="M38" t="n">
-        <v>1596.472763521026</v>
+        <v>1227.454220992573</v>
       </c>
       <c r="N38" t="n">
         <v>1919.84345901604</v>
@@ -7208,10 +7208,10 @@
         <v>2996.258304655795</v>
       </c>
       <c r="V38" t="n">
-        <v>2770.541218809423</v>
+        <v>2770.541218809424</v>
       </c>
       <c r="W38" t="n">
-        <v>2523.118365036508</v>
+        <v>2523.118365036509</v>
       </c>
       <c r="X38" t="n">
         <v>2254.998408272628</v>
@@ -7239,10 +7239,10 @@
         <v>487.7148803287298</v>
       </c>
       <c r="F39" t="n">
-        <v>341.1803223556148</v>
+        <v>341.1803223556147</v>
       </c>
       <c r="G39" t="n">
-        <v>203.9380405237519</v>
+        <v>203.9380405237518</v>
       </c>
       <c r="H39" t="n">
         <v>104.9451021914994</v>
@@ -7251,22 +7251,22 @@
         <v>65.89576755016411</v>
       </c>
       <c r="J39" t="n">
-        <v>202.9927364351604</v>
+        <v>202.9927364351605</v>
       </c>
       <c r="K39" t="n">
-        <v>563.9341358583548</v>
+        <v>563.9341358583549</v>
       </c>
       <c r="L39" t="n">
         <v>1110.66878660494</v>
       </c>
       <c r="M39" t="n">
-        <v>1450.171048031845</v>
+        <v>1339.613544746526</v>
       </c>
       <c r="N39" t="n">
-        <v>1699.583937590797</v>
+        <v>1589.026434305478</v>
       </c>
       <c r="O39" t="n">
-        <v>1905.528209575438</v>
+        <v>1905.528209575437</v>
       </c>
       <c r="P39" t="n">
         <v>2366.761718921111</v>
@@ -7275,10 +7275,10 @@
         <v>2622.386335855532</v>
       </c>
       <c r="R39" t="n">
-        <v>2613.637082709482</v>
+        <v>2613.637082709481</v>
       </c>
       <c r="S39" t="n">
-        <v>2467.868782391219</v>
+        <v>2467.868782391218</v>
       </c>
       <c r="T39" t="n">
         <v>2271.682062991626</v>
@@ -7330,25 +7330,25 @@
         <v>65.89576755016411</v>
       </c>
       <c r="J40" t="n">
-        <v>163.1935352742586</v>
+        <v>65.89576755016411</v>
       </c>
       <c r="K40" t="n">
-        <v>386.4993989927021</v>
+        <v>185.9522112212026</v>
       </c>
       <c r="L40" t="n">
-        <v>595.6567475077271</v>
+        <v>395.1095597362277</v>
       </c>
       <c r="M40" t="n">
-        <v>826.5729685871072</v>
+        <v>626.0257808156077</v>
       </c>
       <c r="N40" t="n">
-        <v>1057.433134474205</v>
+        <v>884.9420582895724</v>
       </c>
       <c r="O40" t="n">
-        <v>1254.653567957073</v>
+        <v>1082.162491772441</v>
       </c>
       <c r="P40" t="n">
-        <v>1399.889037455493</v>
+        <v>1330.647381318266</v>
       </c>
       <c r="Q40" t="n">
         <v>1451.015232143525</v>
@@ -7394,13 +7394,13 @@
         <v>1172.414226674329</v>
       </c>
       <c r="E41" t="n">
-        <v>891.9717755732845</v>
+        <v>891.9717755732842</v>
       </c>
       <c r="F41" t="n">
-        <v>586.3316722808763</v>
+        <v>586.3316722808759</v>
       </c>
       <c r="G41" t="n">
-        <v>274.9618382852429</v>
+        <v>274.9618382852431</v>
       </c>
       <c r="H41" t="n">
         <v>65.89576755016411</v>
@@ -7409,13 +7409,13 @@
         <v>65.89576755016411</v>
       </c>
       <c r="J41" t="n">
-        <v>285.4925656641196</v>
+        <v>285.4925656641197</v>
       </c>
       <c r="K41" t="n">
-        <v>735.3560456871489</v>
+        <v>735.3560456871492</v>
       </c>
       <c r="L41" t="n">
-        <v>1345.72809984796</v>
+        <v>1345.728099847961</v>
       </c>
       <c r="M41" t="n">
         <v>1596.472763521026</v>
@@ -7439,7 +7439,7 @@
         <v>3252.399424646712</v>
       </c>
       <c r="T41" t="n">
-        <v>3144.574434711786</v>
+        <v>3144.574434711785</v>
       </c>
       <c r="U41" t="n">
         <v>2996.258304655795</v>
@@ -7476,10 +7476,10 @@
         <v>487.7148803287298</v>
       </c>
       <c r="F42" t="n">
-        <v>341.1803223556148</v>
+        <v>341.1803223556147</v>
       </c>
       <c r="G42" t="n">
-        <v>203.9380405237519</v>
+        <v>203.9380405237518</v>
       </c>
       <c r="H42" t="n">
         <v>104.9451021914994</v>
@@ -7488,22 +7488,22 @@
         <v>65.89576755016411</v>
       </c>
       <c r="J42" t="n">
-        <v>202.9927364351604</v>
+        <v>202.9927364351605</v>
       </c>
       <c r="K42" t="n">
-        <v>563.9341358583548</v>
+        <v>563.9341358583549</v>
       </c>
       <c r="L42" t="n">
-        <v>1061.955480243678</v>
+        <v>1110.66878660494</v>
       </c>
       <c r="M42" t="n">
-        <v>1290.900238385264</v>
+        <v>1339.613544746526</v>
       </c>
       <c r="N42" t="n">
-        <v>2014.862078544335</v>
+        <v>1589.026434305478</v>
       </c>
       <c r="O42" t="n">
-        <v>2220.806350528976</v>
+        <v>1905.528209575437</v>
       </c>
       <c r="P42" t="n">
         <v>2366.761718921111</v>
@@ -7512,10 +7512,10 @@
         <v>2622.386335855532</v>
       </c>
       <c r="R42" t="n">
-        <v>2613.637082709482</v>
+        <v>2613.637082709481</v>
       </c>
       <c r="S42" t="n">
-        <v>2467.868782391219</v>
+        <v>2467.868782391218</v>
       </c>
       <c r="T42" t="n">
         <v>2271.682062991626</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>383.0329732571494</v>
+        <v>383.0329732571498</v>
       </c>
       <c r="C43" t="n">
-        <v>319.4425918264418</v>
+        <v>319.4425918264421</v>
       </c>
       <c r="D43" t="n">
-        <v>274.6717539113054</v>
+        <v>274.6717539113056</v>
       </c>
       <c r="E43" t="n">
-        <v>232.1044618261116</v>
+        <v>232.1044618261118</v>
       </c>
       <c r="F43" t="n">
-        <v>190.5603158254005</v>
+        <v>190.5603158254007</v>
       </c>
       <c r="G43" t="n">
-        <v>127.4662043234441</v>
+        <v>127.4662043234442</v>
       </c>
       <c r="H43" t="n">
-        <v>80.04154000532422</v>
+        <v>80.04154000532428</v>
       </c>
       <c r="I43" t="n">
         <v>65.89576755016411</v>
       </c>
       <c r="J43" t="n">
-        <v>163.1935352742586</v>
+        <v>65.89576755016411</v>
       </c>
       <c r="K43" t="n">
-        <v>317.2577428554752</v>
+        <v>185.9522112212026</v>
       </c>
       <c r="L43" t="n">
-        <v>526.4150913705001</v>
+        <v>423.1656713230958</v>
       </c>
       <c r="M43" t="n">
-        <v>757.3313124498802</v>
+        <v>757.3313124498809</v>
       </c>
       <c r="N43" t="n">
-        <v>988.1914783369775</v>
+        <v>1091.440898384383</v>
       </c>
       <c r="O43" t="n">
-        <v>1288.661331867251</v>
+        <v>1288.661331867252</v>
       </c>
       <c r="P43" t="n">
-        <v>1433.896801365671</v>
+        <v>1433.896801365672</v>
       </c>
       <c r="Q43" t="n">
-        <v>1451.015232143525</v>
+        <v>1451.015232143526</v>
       </c>
       <c r="R43" t="n">
         <v>1433.388942351123</v>
       </c>
       <c r="S43" t="n">
-        <v>1334.203628686804</v>
+        <v>1334.203628686805</v>
       </c>
       <c r="T43" t="n">
-        <v>1214.633488428792</v>
+        <v>1214.633488428793</v>
       </c>
       <c r="U43" t="n">
         <v>1030.836218885788</v>
       </c>
       <c r="V43" t="n">
-        <v>881.4975321771</v>
+        <v>881.4975321771007</v>
       </c>
       <c r="W43" t="n">
-        <v>697.4261636373386</v>
+        <v>697.4261636373393</v>
       </c>
       <c r="X43" t="n">
-        <v>574.7824142365206</v>
+        <v>574.7824142365212</v>
       </c>
       <c r="Y43" t="n">
-        <v>459.3356365901898</v>
+        <v>459.3356365901903</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>891.9717755732845</v>
       </c>
       <c r="F44" t="n">
-        <v>586.3316722808763</v>
+        <v>586.3316722808759</v>
       </c>
       <c r="G44" t="n">
         <v>274.9618382852429</v>
@@ -7646,22 +7646,22 @@
         <v>65.89576755016411</v>
       </c>
       <c r="J44" t="n">
-        <v>285.4925656641196</v>
+        <v>118.0869166437667</v>
       </c>
       <c r="K44" t="n">
-        <v>414.4520872416958</v>
+        <v>366.3375031586958</v>
       </c>
       <c r="L44" t="n">
-        <v>1024.824141402507</v>
+        <v>976.7095573195074</v>
       </c>
       <c r="M44" t="n">
-        <v>1720.587203233476</v>
+        <v>1227.454220992573</v>
       </c>
       <c r="N44" t="n">
-        <v>2412.976441256944</v>
+        <v>1919.84345901604</v>
       </c>
       <c r="O44" t="n">
-        <v>2644.600147594502</v>
+        <v>2528.459344803717</v>
       </c>
       <c r="P44" t="n">
         <v>3010.224539589797</v>
@@ -7713,10 +7713,10 @@
         <v>487.7148803287298</v>
       </c>
       <c r="F45" t="n">
-        <v>341.1803223556148</v>
+        <v>341.1803223556147</v>
       </c>
       <c r="G45" t="n">
-        <v>203.9380405237519</v>
+        <v>203.9380405237518</v>
       </c>
       <c r="H45" t="n">
         <v>104.9451021914994</v>
@@ -7725,22 +7725,22 @@
         <v>65.89576755016411</v>
       </c>
       <c r="J45" t="n">
-        <v>202.9927364351604</v>
+        <v>202.9927364351605</v>
       </c>
       <c r="K45" t="n">
-        <v>563.9341358583547</v>
+        <v>563.9341358583549</v>
       </c>
       <c r="L45" t="n">
-        <v>743.5368447545147</v>
+        <v>1110.66878660494</v>
       </c>
       <c r="M45" t="n">
-        <v>972.4816028961012</v>
+        <v>1339.613544746526</v>
       </c>
       <c r="N45" t="n">
-        <v>1309.660241506835</v>
+        <v>1589.026434305478</v>
       </c>
       <c r="O45" t="n">
-        <v>1905.528209575438</v>
+        <v>1905.528209575437</v>
       </c>
       <c r="P45" t="n">
         <v>2366.761718921111</v>
@@ -7749,10 +7749,10 @@
         <v>2622.386335855532</v>
       </c>
       <c r="R45" t="n">
-        <v>2613.637082709482</v>
+        <v>2613.637082709481</v>
       </c>
       <c r="S45" t="n">
-        <v>2467.868782391219</v>
+        <v>2467.868782391218</v>
       </c>
       <c r="T45" t="n">
         <v>2271.682062991626</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>383.0329732571494</v>
+        <v>383.0329732571495</v>
       </c>
       <c r="C46" t="n">
-        <v>319.4425918264418</v>
+        <v>319.4425918264419</v>
       </c>
       <c r="D46" t="n">
         <v>274.6717539113054</v>
@@ -7792,7 +7792,7 @@
         <v>232.1044618261116</v>
       </c>
       <c r="F46" t="n">
-        <v>190.5603158254005</v>
+        <v>190.5603158254006</v>
       </c>
       <c r="G46" t="n">
         <v>127.4662043234441</v>
@@ -7804,52 +7804,52 @@
         <v>65.89576755016411</v>
       </c>
       <c r="J46" t="n">
-        <v>163.1935352742586</v>
+        <v>65.89576755016411</v>
       </c>
       <c r="K46" t="n">
-        <v>386.4993989927021</v>
+        <v>185.9522112212026</v>
       </c>
       <c r="L46" t="n">
-        <v>595.6567475077271</v>
+        <v>395.1095597362277</v>
       </c>
       <c r="M46" t="n">
-        <v>826.5729685871072</v>
+        <v>626.0257808156077</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.433134474205</v>
+        <v>960.1353667501102</v>
       </c>
       <c r="O46" t="n">
-        <v>1288.661331867251</v>
+        <v>1260.605220280384</v>
       </c>
       <c r="P46" t="n">
-        <v>1433.896801365671</v>
+        <v>1405.840689778804</v>
       </c>
       <c r="Q46" t="n">
-        <v>1451.015232143525</v>
+        <v>1451.015232143526</v>
       </c>
       <c r="R46" t="n">
         <v>1433.388942351123</v>
       </c>
       <c r="S46" t="n">
-        <v>1334.203628686804</v>
+        <v>1334.203628686805</v>
       </c>
       <c r="T46" t="n">
-        <v>1214.633488428792</v>
+        <v>1214.633488428793</v>
       </c>
       <c r="U46" t="n">
         <v>1030.836218885788</v>
       </c>
       <c r="V46" t="n">
-        <v>881.4975321771</v>
+        <v>881.4975321771001</v>
       </c>
       <c r="W46" t="n">
-        <v>697.4261636373386</v>
+        <v>697.4261636373387</v>
       </c>
       <c r="X46" t="n">
-        <v>574.7824142365206</v>
+        <v>574.7824142365207</v>
       </c>
       <c r="Y46" t="n">
-        <v>459.3356365901898</v>
+        <v>459.3356365901899</v>
       </c>
     </row>
   </sheetData>
@@ -8690,10 +8690,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>318.1581303327758</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>86.31532960640942</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8705,13 +8705,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>192.1584692792807</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>42.57335502542713</v>
+        <v>42.57335502542711</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,22 +8766,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>251.6063397110084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>267.0033956675396</v>
       </c>
       <c r="M12" t="n">
-        <v>217.1629418842806</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>63.39168425557966</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>95.35229149288122</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>300.3208204847764</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>390.1298170038005</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>42.57335502542713</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>88.65227176947508</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>111.6742457427454</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9161,25 +9161,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>64.86276497731669</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>329.821886528358</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9246,7 +9246,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>88.65227176947508</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>111.6742457427454</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9404,13 +9404,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>160.7252713562843</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>183.8683362038397</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>42.57335502542713</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>111.6742457427453</v>
+        <v>111.6742457427454</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9638,10 +9638,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>104.0705026647037</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>31.35106113328976</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>42.57335502542713</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,25 +9714,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>420.9086298462411</v>
+        <v>29.90326475600216</v>
       </c>
       <c r="N24" t="n">
-        <v>58.29991427621954</v>
+        <v>400.2337496266803</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>231.6379630431439</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9887,16 +9887,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>195.7795547994369</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>42.57335502542713</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>111.674245742746</v>
+        <v>111.6742457427452</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>19.93439695247139</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10127,13 +10127,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>83.94913288817608</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>42.57335502542711</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,13 +10197,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>111.6742457427452</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10349,10 +10349,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>289.2953567787213</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10361,16 +10361,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>231.637963043144</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>42.57335502542711</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,19 +10434,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>111.674245742746</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>174.509238368531</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10592,22 +10592,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>294.5432129518308</v>
       </c>
       <c r="Q35" t="n">
-        <v>8.665603277985653</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>42.57335502542713</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,16 +10668,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>3.17221670265161</v>
+        <v>111.6742457427454</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10826,13 +10826,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>44.91521199645709</v>
       </c>
       <c r="N38" t="n">
-        <v>64.60092185799158</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>42.57335502542713</v>
+        <v>42.57335502542711</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,13 +10908,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>111.674245742746</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>111.6742457427454</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>64.60092185799158</v>
+        <v>64.60092185799078</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>42.57335502542713</v>
+        <v>42.57335502542711</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,19 +11142,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>321.6349853425888</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>111.6742457427454</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>120.4960251892452</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>204.4847659585682</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>42.57335502542716</v>
+        <v>42.57335502542711</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,16 +11379,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>88.65227176947619</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>111.6742457427454</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>287.8493297879132</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>277.2594796375886</v>
+        <v>72.9633608470965</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>335.1249171548103</v>
       </c>
       <c r="H11" t="n">
-        <v>233.844191526861</v>
+        <v>233.8441915268611</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>26.86878149913299</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>68.83384483201115</v>
       </c>
       <c r="T11" t="n">
         <v>133.6155215347106</v>
@@ -23315,16 +23315,16 @@
         <v>173.7017502545638</v>
       </c>
       <c r="V11" t="n">
-        <v>172.5039534170051</v>
+        <v>250.3286964870406</v>
       </c>
       <c r="W11" t="n">
-        <v>271.8174067343187</v>
+        <v>271.8174067343188</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>292.3075386953748</v>
       </c>
       <c r="Y11" t="n">
-        <v>308.8143766729593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>60.93937715402174</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>60.93937715401989</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>277.2594796375887</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>24.93795394055354</v>
+        <v>335.1249171548103</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>26.86878149913298</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>68.83384483201118</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>133.6155215347106</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>250.3286964870406</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>271.8174067343187</v>
+        <v>147.5109702577847</v>
       </c>
       <c r="X14" t="n">
-        <v>292.3075386953747</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>308.8143766729594</v>
       </c>
     </row>
     <row r="15">
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>60.93937715402058</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>60.93937715402144</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1408587.990643557</v>
+        <v>1408587.990643558</v>
       </c>
     </row>
     <row r="8">
@@ -26320,10 +26320,10 @@
         <v>102409.5423396298</v>
       </c>
       <c r="E2" t="n">
-        <v>83946.31330639248</v>
+        <v>83946.31330639243</v>
       </c>
       <c r="F2" t="n">
-        <v>91813.74115152816</v>
+        <v>91813.74115152803</v>
       </c>
       <c r="G2" t="n">
         <v>102630.2212330354</v>
@@ -26341,19 +26341,19 @@
         <v>102630.2212330355</v>
       </c>
       <c r="L2" t="n">
+        <v>102630.2212330354</v>
+      </c>
+      <c r="M2" t="n">
         <v>102630.2212330355</v>
-      </c>
-      <c r="M2" t="n">
-        <v>102630.2212330356</v>
       </c>
       <c r="N2" t="n">
         <v>102630.2212330355</v>
       </c>
       <c r="O2" t="n">
+        <v>102630.2212330356</v>
+      </c>
+      <c r="P2" t="n">
         <v>102630.2212330355</v>
-      </c>
-      <c r="P2" t="n">
-        <v>102630.2212330356</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>746256.1644166388</v>
+        <v>746256.1644166389</v>
       </c>
       <c r="F3" t="n">
-        <v>58378.43698898883</v>
+        <v>58378.4369889888</v>
       </c>
       <c r="G3" t="n">
-        <v>59877.36107027684</v>
+        <v>59877.3610702769</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>73573.91951487771</v>
+        <v>73573.91951487752</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>59877.36107027682</v>
+        <v>59877.36107027689</v>
       </c>
       <c r="M3" t="n">
         <v>107779.8354573343</v>
       </c>
       <c r="N3" t="n">
-        <v>49902.82011545922</v>
+        <v>49902.82011545923</v>
       </c>
       <c r="O3" t="n">
-        <v>4106.365438248872</v>
+        <v>4106.365438248781</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,19 +26427,19 @@
         <v>132767.5489705624</v>
       </c>
       <c r="F4" t="n">
-        <v>153149.3497879657</v>
+        <v>153149.3497879656</v>
       </c>
       <c r="G4" t="n">
-        <v>202349.5883717046</v>
+        <v>202349.5883717045</v>
       </c>
       <c r="H4" t="n">
-        <v>202349.5883717046</v>
+        <v>202349.5883717045</v>
       </c>
       <c r="I4" t="n">
         <v>202349.5883717046</v>
       </c>
       <c r="J4" t="n">
-        <v>189330.9659432835</v>
+        <v>189330.9659432834</v>
       </c>
       <c r="K4" t="n">
         <v>189330.9659432834</v>
@@ -26448,16 +26448,16 @@
         <v>189330.9659432834</v>
       </c>
       <c r="M4" t="n">
-        <v>193885.5459623941</v>
+        <v>193885.545962394</v>
       </c>
       <c r="N4" t="n">
-        <v>193885.5459623941</v>
+        <v>193885.545962394</v>
       </c>
       <c r="O4" t="n">
-        <v>193885.5459623941</v>
+        <v>193885.545962394</v>
       </c>
       <c r="P4" t="n">
-        <v>193885.5459623941</v>
+        <v>193885.545962394</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>48708.52866658148</v>
       </c>
       <c r="F5" t="n">
-        <v>61096.2664946687</v>
+        <v>61096.26649466871</v>
       </c>
       <c r="G5" t="n">
         <v>67388.55382944009</v>
@@ -26488,28 +26488,28 @@
         <v>67388.55382944009</v>
       </c>
       <c r="I5" t="n">
-        <v>67388.55382944006</v>
+        <v>67388.55382944009</v>
       </c>
       <c r="J5" t="n">
         <v>77453.80406787344</v>
       </c>
       <c r="K5" t="n">
-        <v>77453.80406787344</v>
+        <v>77453.80406787343</v>
       </c>
       <c r="L5" t="n">
-        <v>77453.80406787344</v>
+        <v>77453.80406787343</v>
       </c>
       <c r="M5" t="n">
         <v>73784.19097745875</v>
       </c>
       <c r="N5" t="n">
-        <v>73784.19097745874</v>
+        <v>73784.19097745875</v>
       </c>
       <c r="O5" t="n">
         <v>73784.19097745874</v>
       </c>
       <c r="P5" t="n">
-        <v>73784.19097745874</v>
+        <v>73784.19097745875</v>
       </c>
     </row>
     <row r="6">
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-362116.567103046</v>
+        <v>-362120.9806809141</v>
       </c>
       <c r="C6" t="n">
-        <v>-362116.567103046</v>
+        <v>-362120.9806809141</v>
       </c>
       <c r="D6" t="n">
-        <v>-362116.5671030461</v>
+        <v>-362120.9806809142</v>
       </c>
       <c r="E6" t="n">
-        <v>-843785.9287473902</v>
+        <v>-844159.6069059232</v>
       </c>
       <c r="F6" t="n">
-        <v>-180810.3121200951</v>
+        <v>-181026.6417217253</v>
       </c>
       <c r="G6" t="n">
         <v>-226985.2820383861</v>
@@ -26540,16 +26540,16 @@
         <v>-167107.9209681093</v>
       </c>
       <c r="I6" t="n">
-        <v>-167107.9209681091</v>
+        <v>-167107.9209681093</v>
       </c>
       <c r="J6" t="n">
-        <v>-237728.4682929991</v>
+        <v>-237728.4682929989</v>
       </c>
       <c r="K6" t="n">
         <v>-164154.5487781214</v>
       </c>
       <c r="L6" t="n">
-        <v>-224031.9098483982</v>
+        <v>-224031.9098483983</v>
       </c>
       <c r="M6" t="n">
         <v>-272819.3511641516</v>
@@ -26558,7 +26558,7 @@
         <v>-214942.3358222765</v>
       </c>
       <c r="O6" t="n">
-        <v>-169145.8811450662</v>
+        <v>-169145.881145066</v>
       </c>
       <c r="P6" t="n">
         <v>-165039.5157068173</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="F2" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="G2" t="n">
         <v>152.2702633209404</v>
@@ -26707,13 +26707,13 @@
         <v>152.2702633209404</v>
       </c>
       <c r="J2" t="n">
+        <v>79.9796581356571</v>
+      </c>
+      <c r="K2" t="n">
+        <v>79.97965813565716</v>
+      </c>
+      <c r="L2" t="n">
         <v>79.97965813565715</v>
-      </c>
-      <c r="K2" t="n">
-        <v>79.97965813565713</v>
-      </c>
-      <c r="L2" t="n">
-        <v>79.9796581356571</v>
       </c>
       <c r="M2" t="n">
         <v>104.2923434822273</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>685.1217713360852</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="F3" t="n">
-        <v>685.1217713360852</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="G3" t="n">
-        <v>685.1217713360852</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="H3" t="n">
-        <v>685.1217713360852</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="I3" t="n">
-        <v>685.1217713360852</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="J3" t="n">
-        <v>685.1217713360852</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="K3" t="n">
         <v>685.1217713360853</v>
       </c>
       <c r="L3" t="n">
-        <v>685.1217713360852</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="M3" t="n">
-        <v>685.1217713360852</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="N3" t="n">
-        <v>685.1217713360852</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="O3" t="n">
-        <v>685.1217713360852</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="P3" t="n">
-        <v>685.1217713360851</v>
+        <v>685.1217713360853</v>
       </c>
     </row>
     <row r="4">
@@ -26799,25 +26799,25 @@
         <v>448.4202733404287</v>
       </c>
       <c r="F4" t="n">
-        <v>652.1659613023896</v>
+        <v>652.1659613023897</v>
       </c>
       <c r="G4" t="n">
-        <v>652.1659613023896</v>
+        <v>652.1659613023897</v>
       </c>
       <c r="H4" t="n">
-        <v>652.1659613023896</v>
+        <v>652.1659613023897</v>
       </c>
       <c r="I4" t="n">
-        <v>652.1659613023892</v>
+        <v>652.1659613023897</v>
       </c>
       <c r="J4" t="n">
         <v>917.6700587654643</v>
       </c>
       <c r="K4" t="n">
-        <v>917.6700587654642</v>
+        <v>917.6700587654641</v>
       </c>
       <c r="L4" t="n">
-        <v>917.6700587654643</v>
+        <v>917.6700587654641</v>
       </c>
       <c r="M4" t="n">
         <v>823.6970943770514</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>74.84670133784606</v>
+        <v>74.84670133784613</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.13295679781109</v>
+        <v>5.132956797811033</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>74.84670133784603</v>
+        <v>74.84670133784611</v>
       </c>
       <c r="M2" t="n">
-        <v>24.31268534657022</v>
+        <v>24.31268534657015</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.13295679781109</v>
+        <v>5.132956797810976</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>685.1217713360852</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>265.5040974630751</v>
+        <v>265.5040974630746</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>354.4473089520157</v>
+        <v>354.447308952016</v>
       </c>
       <c r="N4" t="n">
         <v>203.745687961961</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>74.84670133784606</v>
+        <v>74.84670133784613</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.13295679781109</v>
+        <v>5.132956797811033</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="C11" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="D11" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="E11" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="F11" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="G11" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="H11" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="I11" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="T11" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="U11" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="V11" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="W11" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="X11" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="Y11" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="E12" t="n">
-        <v>77.4235619830943</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="H12" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="I12" t="n">
-        <v>7.798885397245559</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>8.661760614590051</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S12" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="T12" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="U12" t="n">
-        <v>77.4235619830943</v>
+        <v>46.56360608541786</v>
       </c>
       <c r="V12" t="n">
-        <v>77.4235619830943</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="Y12" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="C13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="D13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="E13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="F13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="G13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="H13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="I13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="J13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="K13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="L13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="M13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="N13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="O13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="P13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="R13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="S13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="T13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="U13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="V13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="W13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="X13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="Y13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309429</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="C14" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="D14" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="E14" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="F14" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="G14" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="H14" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="I14" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="T14" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="U14" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="V14" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="W14" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="X14" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="Y14" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
     </row>
     <row r="15">
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="C16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="D16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="E16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="F16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="G16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="H16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="I16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="J16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="K16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="L16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="M16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="N16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="O16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="P16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="R16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="S16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="T16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="U16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="V16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="W16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="X16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
       <c r="Y16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309423</v>
       </c>
     </row>
     <row r="17">
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>146.2574068151055</v>
+        <v>146.2574068151054</v>
       </c>
       <c r="T17" t="n">
         <v>152.2702633209404</v>
@@ -28691,7 +28691,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28734,16 +28734,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="H19" t="n">
-        <v>151.2427611571659</v>
+        <v>2.215279035719732</v>
       </c>
       <c r="I19" t="n">
         <v>118.2966582128358</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>6.011770023545978</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28770,16 +28770,16 @@
         <v>121.7423703767059</v>
       </c>
       <c r="S19" t="n">
-        <v>9.254551223040551</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="T19" t="n">
-        <v>152.2702633209404</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>152.2702633209404</v>
       </c>
       <c r="V19" t="n">
-        <v>152.2702633209404</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>152.2702633209404</v>
@@ -28788,7 +28788,7 @@
         <v>152.2702633209404</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>152.2702633209404</v>
       </c>
     </row>
     <row r="20">
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>146.2574068151055</v>
+        <v>146.2574068151054</v>
       </c>
       <c r="T20" t="n">
         <v>152.2702633209404</v>
@@ -28971,7 +28971,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="H22" t="n">
         <v>151.2427611571659</v>
@@ -28980,7 +28980,7 @@
         <v>118.2966582128358</v>
       </c>
       <c r="J22" t="n">
-        <v>6.011770023545992</v>
+        <v>6.011770023545978</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29004,16 +29004,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>121.7423703767059</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2702633209404</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>152.2702633209404</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2702633209404</v>
+        <v>124.9851515762</v>
       </c>
       <c r="V22" t="n">
         <v>152.2702633209404</v>
@@ -29022,10 +29022,10 @@
         <v>152.2702633209404</v>
       </c>
       <c r="X22" t="n">
-        <v>3.242781199494658</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>152.2702633209404</v>
       </c>
     </row>
     <row r="23">
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>146.2574068151055</v>
+        <v>146.2574068151054</v>
       </c>
       <c r="T23" t="n">
         <v>152.2702633209404</v>
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2.572164703451563e-12</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29208,7 +29208,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>3.242781199494573</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="H25" t="n">
         <v>151.2427611571659</v>
@@ -29217,7 +29217,7 @@
         <v>118.2966582128358</v>
       </c>
       <c r="J25" t="n">
-        <v>6.011770023545992</v>
+        <v>6.011770023545978</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29250,7 +29250,7 @@
         <v>152.2702633209404</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2702633209404</v>
+        <v>3.242781199494232</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="C26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="D26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="E26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="F26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="G26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="H26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="I26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="T26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="U26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="V26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="W26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="X26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="C28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="D28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="E28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="F28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="G28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="H28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="I28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="J28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="K28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="L28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="M28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="N28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="O28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="P28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="R28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="S28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="T28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="U28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="V28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="W28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="X28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.9796581356571</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="C29" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="D29" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="E29" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="F29" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="G29" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="H29" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="I29" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="T29" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="U29" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="V29" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="W29" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="X29" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="C31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="D31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="E31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="F31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="G31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="H31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="I31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="J31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="K31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="L31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="M31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="N31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="O31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="P31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="R31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="S31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="T31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="U31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="V31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="W31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="X31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565716</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="C32" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="D32" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="E32" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="F32" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="G32" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="H32" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="I32" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="T32" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565784</v>
       </c>
       <c r="U32" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="V32" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="W32" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="X32" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="C34" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="D34" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="E34" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="F34" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="G34" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="H34" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="I34" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="J34" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="K34" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="L34" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="M34" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="N34" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="O34" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="P34" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="R34" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="S34" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="T34" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="U34" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="V34" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="W34" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="X34" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565715</v>
       </c>
     </row>
     <row r="35">
@@ -30165,7 +30165,7 @@
         <v>104.2923434822273</v>
       </c>
       <c r="J37" t="n">
-        <v>6.011770023545992</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30174,19 +30174,19 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>34.35127667694755</v>
       </c>
       <c r="O37" t="n">
-        <v>28.33950665340097</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>104.2923434822273</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>104.2923434822273</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>104.2923434822273</v>
@@ -30402,28 +30402,28 @@
         <v>104.2923434822273</v>
       </c>
       <c r="J40" t="n">
+        <v>6.011770023545978</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>28.33950665340129</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
         <v>104.2923434822273</v>
       </c>
-      <c r="K40" t="n">
+      <c r="Q40" t="n">
         <v>104.2923434822273</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>34.35127667694753</v>
       </c>
       <c r="R40" t="n">
         <v>104.2923434822273</v>
@@ -30639,22 +30639,22 @@
         <v>104.2923434822273</v>
       </c>
       <c r="J43" t="n">
+        <v>6.011770023545978</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>28.33950665340211</v>
+      </c>
+      <c r="M43" t="n">
         <v>104.2923434822273</v>
       </c>
-      <c r="K43" t="n">
-        <v>34.35127667694752</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="O43" t="n">
-        <v>104.2923434822273</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30876,28 +30876,28 @@
         <v>104.2923434822273</v>
       </c>
       <c r="J46" t="n">
+        <v>6.011770023545978</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
         <v>104.2923434822273</v>
       </c>
-      <c r="K46" t="n">
+      <c r="O46" t="n">
         <v>104.2923434822273</v>
       </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>34.35127667694749</v>
-      </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>28.33950665340151</v>
       </c>
       <c r="R46" t="n">
         <v>104.2923434822273</v>
@@ -31750,31 +31750,31 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.754258377230491</v>
+        <v>2.754258377230492</v>
       </c>
       <c r="H11" t="n">
-        <v>28.20704860581177</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I11" t="n">
         <v>106.1835460881786</v>
       </c>
       <c r="J11" t="n">
-        <v>233.7642369444666</v>
+        <v>233.7642369444667</v>
       </c>
       <c r="K11" t="n">
         <v>350.3519940526334</v>
       </c>
       <c r="L11" t="n">
-        <v>434.6426288648011</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M11" t="n">
         <v>483.6236712808739</v>
       </c>
       <c r="N11" t="n">
-        <v>491.44920789518</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O11" t="n">
-        <v>464.0615511565943</v>
+        <v>464.0615511565944</v>
       </c>
       <c r="P11" t="n">
         <v>396.0657974687165</v>
@@ -31786,7 +31786,7 @@
         <v>173.012182788705</v>
       </c>
       <c r="S11" t="n">
-        <v>62.76266277113988</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T11" t="n">
         <v>12.05676604632648</v>
@@ -31832,46 +31832,46 @@
         <v>1.473658149666297</v>
       </c>
       <c r="H12" t="n">
-        <v>14.2324352875666</v>
+        <v>14.23243528756661</v>
       </c>
       <c r="I12" t="n">
-        <v>50.73779155649311</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J12" t="n">
         <v>139.2283780787794</v>
       </c>
       <c r="K12" t="n">
-        <v>237.9634741064212</v>
+        <v>237.9634741064213</v>
       </c>
       <c r="L12" t="n">
-        <v>319.9712574527632</v>
+        <v>319.9712574527633</v>
       </c>
       <c r="M12" t="n">
         <v>373.3913653781664</v>
       </c>
       <c r="N12" t="n">
-        <v>383.2739237590426</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O12" t="n">
-        <v>350.6207616006473</v>
+        <v>350.6207616006474</v>
       </c>
       <c r="P12" t="n">
         <v>281.4040724568914</v>
       </c>
       <c r="Q12" t="n">
-        <v>188.1111701223153</v>
+        <v>188.1111701223154</v>
       </c>
       <c r="R12" t="n">
-        <v>91.49607353805308</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S12" t="n">
         <v>27.37255378875773</v>
       </c>
       <c r="T12" t="n">
-        <v>5.939876489225114</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09695119405699323</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,25 +31914,25 @@
         <v>10.98441135027364</v>
       </c>
       <c r="I13" t="n">
-        <v>37.15381671442246</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J13" t="n">
-        <v>87.34741009312678</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K13" t="n">
         <v>143.5386268471339</v>
       </c>
       <c r="L13" t="n">
-        <v>183.6800237447596</v>
+        <v>183.6800237447597</v>
       </c>
       <c r="M13" t="n">
-        <v>193.6648311991494</v>
+        <v>193.6648311991495</v>
       </c>
       <c r="N13" t="n">
         <v>189.0599143754152</v>
       </c>
       <c r="O13" t="n">
-        <v>174.6274311595648</v>
+        <v>174.6274311595649</v>
       </c>
       <c r="P13" t="n">
         <v>149.4239351779553</v>
@@ -31941,16 +31941,16 @@
         <v>103.4533874717489</v>
       </c>
       <c r="R13" t="n">
-        <v>55.55102100046354</v>
+        <v>55.55102100046356</v>
       </c>
       <c r="S13" t="n">
         <v>21.53079402707008</v>
       </c>
       <c r="T13" t="n">
-        <v>5.278807090622294</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06738902668879533</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,31 +31987,31 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.754258377230491</v>
+        <v>2.754258377230492</v>
       </c>
       <c r="H14" t="n">
-        <v>28.20704860581177</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I14" t="n">
         <v>106.1835460881786</v>
       </c>
       <c r="J14" t="n">
-        <v>233.7642369444666</v>
+        <v>233.7642369444667</v>
       </c>
       <c r="K14" t="n">
         <v>350.3519940526334</v>
       </c>
       <c r="L14" t="n">
-        <v>434.6426288648011</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M14" t="n">
         <v>483.6236712808739</v>
       </c>
       <c r="N14" t="n">
-        <v>491.44920789518</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O14" t="n">
-        <v>464.0615511565943</v>
+        <v>464.0615511565944</v>
       </c>
       <c r="P14" t="n">
         <v>396.0657974687165</v>
@@ -32023,7 +32023,7 @@
         <v>173.012182788705</v>
       </c>
       <c r="S14" t="n">
-        <v>62.76266277113988</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T14" t="n">
         <v>12.05676604632648</v>
@@ -32069,46 +32069,46 @@
         <v>1.473658149666297</v>
       </c>
       <c r="H15" t="n">
-        <v>14.2324352875666</v>
+        <v>14.23243528756661</v>
       </c>
       <c r="I15" t="n">
-        <v>50.73779155649311</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J15" t="n">
         <v>139.2283780787794</v>
       </c>
       <c r="K15" t="n">
-        <v>237.9634741064212</v>
+        <v>237.9634741064213</v>
       </c>
       <c r="L15" t="n">
-        <v>319.9712574527632</v>
+        <v>319.9712574527633</v>
       </c>
       <c r="M15" t="n">
         <v>373.3913653781664</v>
       </c>
       <c r="N15" t="n">
-        <v>383.2739237590426</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O15" t="n">
-        <v>350.6207616006473</v>
+        <v>350.6207616006474</v>
       </c>
       <c r="P15" t="n">
         <v>281.4040724568914</v>
       </c>
       <c r="Q15" t="n">
-        <v>188.1111701223153</v>
+        <v>188.1111701223154</v>
       </c>
       <c r="R15" t="n">
-        <v>91.49607353805308</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S15" t="n">
         <v>27.37255378875773</v>
       </c>
       <c r="T15" t="n">
-        <v>5.939876489225114</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09695119405699323</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,25 +32151,25 @@
         <v>10.98441135027364</v>
       </c>
       <c r="I16" t="n">
-        <v>37.15381671442246</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J16" t="n">
-        <v>87.34741009312678</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K16" t="n">
         <v>143.5386268471339</v>
       </c>
       <c r="L16" t="n">
-        <v>183.6800237447596</v>
+        <v>183.6800237447597</v>
       </c>
       <c r="M16" t="n">
-        <v>193.6648311991494</v>
+        <v>193.6648311991495</v>
       </c>
       <c r="N16" t="n">
         <v>189.0599143754152</v>
       </c>
       <c r="O16" t="n">
-        <v>174.6274311595648</v>
+        <v>174.6274311595649</v>
       </c>
       <c r="P16" t="n">
         <v>149.4239351779553</v>
@@ -32178,16 +32178,16 @@
         <v>103.4533874717489</v>
       </c>
       <c r="R16" t="n">
-        <v>55.55102100046354</v>
+        <v>55.55102100046356</v>
       </c>
       <c r="S16" t="n">
         <v>21.53079402707008</v>
       </c>
       <c r="T16" t="n">
-        <v>5.278807090622294</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06738902668879533</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,31 +32224,31 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.754258377230491</v>
+        <v>2.754258377230492</v>
       </c>
       <c r="H17" t="n">
-        <v>28.20704860581177</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I17" t="n">
         <v>106.1835460881786</v>
       </c>
       <c r="J17" t="n">
-        <v>233.7642369444666</v>
+        <v>233.7642369444667</v>
       </c>
       <c r="K17" t="n">
         <v>350.3519940526334</v>
       </c>
       <c r="L17" t="n">
-        <v>434.6426288648011</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M17" t="n">
         <v>483.6236712808739</v>
       </c>
       <c r="N17" t="n">
-        <v>491.44920789518</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O17" t="n">
-        <v>464.0615511565943</v>
+        <v>464.0615511565944</v>
       </c>
       <c r="P17" t="n">
         <v>396.0657974687165</v>
@@ -32260,7 +32260,7 @@
         <v>173.012182788705</v>
       </c>
       <c r="S17" t="n">
-        <v>62.76266277113988</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T17" t="n">
         <v>12.05676604632648</v>
@@ -32306,46 +32306,46 @@
         <v>1.473658149666297</v>
       </c>
       <c r="H18" t="n">
-        <v>14.2324352875666</v>
+        <v>14.23243528756661</v>
       </c>
       <c r="I18" t="n">
-        <v>50.73779155649311</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J18" t="n">
         <v>139.2283780787794</v>
       </c>
       <c r="K18" t="n">
-        <v>237.9634741064212</v>
+        <v>237.9634741064213</v>
       </c>
       <c r="L18" t="n">
-        <v>319.9712574527632</v>
+        <v>319.9712574527633</v>
       </c>
       <c r="M18" t="n">
         <v>373.3913653781664</v>
       </c>
       <c r="N18" t="n">
-        <v>383.2739237590426</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O18" t="n">
-        <v>350.6207616006473</v>
+        <v>350.6207616006474</v>
       </c>
       <c r="P18" t="n">
         <v>281.4040724568914</v>
       </c>
       <c r="Q18" t="n">
-        <v>188.1111701223153</v>
+        <v>188.1111701223154</v>
       </c>
       <c r="R18" t="n">
-        <v>91.49607353805308</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S18" t="n">
         <v>27.37255378875773</v>
       </c>
       <c r="T18" t="n">
-        <v>5.939876489225114</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09695119405699323</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,25 +32388,25 @@
         <v>10.98441135027364</v>
       </c>
       <c r="I19" t="n">
-        <v>37.15381671442246</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J19" t="n">
-        <v>87.34741009312678</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K19" t="n">
         <v>143.5386268471339</v>
       </c>
       <c r="L19" t="n">
-        <v>183.6800237447596</v>
+        <v>183.6800237447597</v>
       </c>
       <c r="M19" t="n">
-        <v>193.6648311991494</v>
+        <v>193.6648311991495</v>
       </c>
       <c r="N19" t="n">
         <v>189.0599143754152</v>
       </c>
       <c r="O19" t="n">
-        <v>174.6274311595648</v>
+        <v>174.6274311595649</v>
       </c>
       <c r="P19" t="n">
         <v>149.4239351779553</v>
@@ -32415,16 +32415,16 @@
         <v>103.4533874717489</v>
       </c>
       <c r="R19" t="n">
-        <v>55.55102100046354</v>
+        <v>55.55102100046356</v>
       </c>
       <c r="S19" t="n">
         <v>21.53079402707008</v>
       </c>
       <c r="T19" t="n">
-        <v>5.278807090622294</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06738902668879533</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,31 +32461,31 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.754258377230491</v>
+        <v>2.754258377230492</v>
       </c>
       <c r="H20" t="n">
-        <v>28.20704860581177</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I20" t="n">
         <v>106.1835460881786</v>
       </c>
       <c r="J20" t="n">
-        <v>233.7642369444666</v>
+        <v>233.7642369444667</v>
       </c>
       <c r="K20" t="n">
         <v>350.3519940526334</v>
       </c>
       <c r="L20" t="n">
-        <v>434.6426288648011</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M20" t="n">
         <v>483.6236712808739</v>
       </c>
       <c r="N20" t="n">
-        <v>491.44920789518</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O20" t="n">
-        <v>464.0615511565943</v>
+        <v>464.0615511565944</v>
       </c>
       <c r="P20" t="n">
         <v>396.0657974687165</v>
@@ -32497,7 +32497,7 @@
         <v>173.012182788705</v>
       </c>
       <c r="S20" t="n">
-        <v>62.76266277113988</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T20" t="n">
         <v>12.05676604632648</v>
@@ -32543,46 +32543,46 @@
         <v>1.473658149666297</v>
       </c>
       <c r="H21" t="n">
-        <v>14.2324352875666</v>
+        <v>14.23243528756661</v>
       </c>
       <c r="I21" t="n">
-        <v>50.73779155649311</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J21" t="n">
         <v>139.2283780787794</v>
       </c>
       <c r="K21" t="n">
-        <v>237.9634741064212</v>
+        <v>237.9634741064213</v>
       </c>
       <c r="L21" t="n">
-        <v>319.9712574527632</v>
+        <v>319.9712574527633</v>
       </c>
       <c r="M21" t="n">
         <v>373.3913653781664</v>
       </c>
       <c r="N21" t="n">
-        <v>383.2739237590426</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O21" t="n">
-        <v>350.6207616006473</v>
+        <v>350.6207616006474</v>
       </c>
       <c r="P21" t="n">
         <v>281.4040724568914</v>
       </c>
       <c r="Q21" t="n">
-        <v>188.1111701223153</v>
+        <v>188.1111701223154</v>
       </c>
       <c r="R21" t="n">
-        <v>91.49607353805308</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S21" t="n">
         <v>27.37255378875773</v>
       </c>
       <c r="T21" t="n">
-        <v>5.939876489225114</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09695119405699323</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,25 +32625,25 @@
         <v>10.98441135027364</v>
       </c>
       <c r="I22" t="n">
-        <v>37.15381671442246</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J22" t="n">
-        <v>87.34741009312678</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K22" t="n">
         <v>143.5386268471339</v>
       </c>
       <c r="L22" t="n">
-        <v>183.6800237447596</v>
+        <v>183.6800237447597</v>
       </c>
       <c r="M22" t="n">
-        <v>193.6648311991494</v>
+        <v>193.6648311991495</v>
       </c>
       <c r="N22" t="n">
         <v>189.0599143754152</v>
       </c>
       <c r="O22" t="n">
-        <v>174.6274311595648</v>
+        <v>174.6274311595649</v>
       </c>
       <c r="P22" t="n">
         <v>149.4239351779553</v>
@@ -32652,16 +32652,16 @@
         <v>103.4533874717489</v>
       </c>
       <c r="R22" t="n">
-        <v>55.55102100046354</v>
+        <v>55.55102100046356</v>
       </c>
       <c r="S22" t="n">
         <v>21.53079402707008</v>
       </c>
       <c r="T22" t="n">
-        <v>5.278807090622294</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06738902668879533</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,31 +32698,31 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.754258377230491</v>
+        <v>2.754258377230492</v>
       </c>
       <c r="H23" t="n">
-        <v>28.20704860581177</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I23" t="n">
         <v>106.1835460881786</v>
       </c>
       <c r="J23" t="n">
-        <v>233.7642369444666</v>
+        <v>233.7642369444667</v>
       </c>
       <c r="K23" t="n">
         <v>350.3519940526334</v>
       </c>
       <c r="L23" t="n">
-        <v>434.6426288648011</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M23" t="n">
         <v>483.6236712808739</v>
       </c>
       <c r="N23" t="n">
-        <v>491.44920789518</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O23" t="n">
-        <v>464.0615511565943</v>
+        <v>464.0615511565944</v>
       </c>
       <c r="P23" t="n">
         <v>396.0657974687165</v>
@@ -32734,7 +32734,7 @@
         <v>173.012182788705</v>
       </c>
       <c r="S23" t="n">
-        <v>62.76266277113988</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T23" t="n">
         <v>12.05676604632648</v>
@@ -32780,46 +32780,46 @@
         <v>1.473658149666297</v>
       </c>
       <c r="H24" t="n">
-        <v>14.2324352875666</v>
+        <v>14.23243528756661</v>
       </c>
       <c r="I24" t="n">
-        <v>50.73779155649311</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J24" t="n">
         <v>139.2283780787794</v>
       </c>
       <c r="K24" t="n">
-        <v>237.9634741064212</v>
+        <v>237.9634741064213</v>
       </c>
       <c r="L24" t="n">
-        <v>319.9712574527632</v>
+        <v>319.9712574527633</v>
       </c>
       <c r="M24" t="n">
         <v>373.3913653781664</v>
       </c>
       <c r="N24" t="n">
-        <v>383.2739237590426</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O24" t="n">
-        <v>350.6207616006473</v>
+        <v>350.6207616006474</v>
       </c>
       <c r="P24" t="n">
         <v>281.4040724568914</v>
       </c>
       <c r="Q24" t="n">
-        <v>188.1111701223153</v>
+        <v>188.1111701223154</v>
       </c>
       <c r="R24" t="n">
-        <v>91.49607353805308</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S24" t="n">
         <v>27.37255378875773</v>
       </c>
       <c r="T24" t="n">
-        <v>5.939876489225114</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09695119405699323</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,25 +32862,25 @@
         <v>10.98441135027364</v>
       </c>
       <c r="I25" t="n">
-        <v>37.15381671442246</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J25" t="n">
-        <v>87.34741009312678</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K25" t="n">
         <v>143.5386268471339</v>
       </c>
       <c r="L25" t="n">
-        <v>183.6800237447596</v>
+        <v>183.6800237447597</v>
       </c>
       <c r="M25" t="n">
-        <v>193.6648311991494</v>
+        <v>193.6648311991495</v>
       </c>
       <c r="N25" t="n">
         <v>189.0599143754152</v>
       </c>
       <c r="O25" t="n">
-        <v>174.6274311595648</v>
+        <v>174.6274311595649</v>
       </c>
       <c r="P25" t="n">
         <v>149.4239351779553</v>
@@ -32889,16 +32889,16 @@
         <v>103.4533874717489</v>
       </c>
       <c r="R25" t="n">
-        <v>55.55102100046354</v>
+        <v>55.55102100046356</v>
       </c>
       <c r="S25" t="n">
         <v>21.53079402707008</v>
       </c>
       <c r="T25" t="n">
-        <v>5.278807090622294</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06738902668879533</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,31 +32935,31 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.754258377230491</v>
+        <v>2.754258377230492</v>
       </c>
       <c r="H26" t="n">
-        <v>28.20704860581177</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I26" t="n">
         <v>106.1835460881786</v>
       </c>
       <c r="J26" t="n">
-        <v>233.7642369444666</v>
+        <v>233.7642369444667</v>
       </c>
       <c r="K26" t="n">
         <v>350.3519940526334</v>
       </c>
       <c r="L26" t="n">
-        <v>434.6426288648011</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M26" t="n">
         <v>483.6236712808739</v>
       </c>
       <c r="N26" t="n">
-        <v>491.44920789518</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O26" t="n">
-        <v>464.0615511565943</v>
+        <v>464.0615511565944</v>
       </c>
       <c r="P26" t="n">
         <v>396.0657974687165</v>
@@ -32971,7 +32971,7 @@
         <v>173.012182788705</v>
       </c>
       <c r="S26" t="n">
-        <v>62.76266277113988</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T26" t="n">
         <v>12.05676604632648</v>
@@ -33017,46 +33017,46 @@
         <v>1.473658149666297</v>
       </c>
       <c r="H27" t="n">
-        <v>14.2324352875666</v>
+        <v>14.23243528756661</v>
       </c>
       <c r="I27" t="n">
-        <v>50.73779155649311</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J27" t="n">
         <v>139.2283780787794</v>
       </c>
       <c r="K27" t="n">
-        <v>237.9634741064212</v>
+        <v>237.9634741064213</v>
       </c>
       <c r="L27" t="n">
-        <v>319.9712574527632</v>
+        <v>319.9712574527633</v>
       </c>
       <c r="M27" t="n">
         <v>373.3913653781664</v>
       </c>
       <c r="N27" t="n">
-        <v>383.2739237590426</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O27" t="n">
-        <v>350.6207616006473</v>
+        <v>350.6207616006474</v>
       </c>
       <c r="P27" t="n">
         <v>281.4040724568914</v>
       </c>
       <c r="Q27" t="n">
-        <v>188.1111701223153</v>
+        <v>188.1111701223154</v>
       </c>
       <c r="R27" t="n">
-        <v>91.49607353805308</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S27" t="n">
         <v>27.37255378875773</v>
       </c>
       <c r="T27" t="n">
-        <v>5.939876489225114</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09695119405699323</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,25 +33099,25 @@
         <v>10.98441135027364</v>
       </c>
       <c r="I28" t="n">
-        <v>37.15381671442246</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J28" t="n">
-        <v>87.34741009312678</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K28" t="n">
         <v>143.5386268471339</v>
       </c>
       <c r="L28" t="n">
-        <v>183.6800237447596</v>
+        <v>183.6800237447597</v>
       </c>
       <c r="M28" t="n">
-        <v>193.6648311991494</v>
+        <v>193.6648311991495</v>
       </c>
       <c r="N28" t="n">
         <v>189.0599143754152</v>
       </c>
       <c r="O28" t="n">
-        <v>174.6274311595648</v>
+        <v>174.6274311595649</v>
       </c>
       <c r="P28" t="n">
         <v>149.4239351779553</v>
@@ -33126,16 +33126,16 @@
         <v>103.4533874717489</v>
       </c>
       <c r="R28" t="n">
-        <v>55.55102100046354</v>
+        <v>55.55102100046356</v>
       </c>
       <c r="S28" t="n">
         <v>21.53079402707008</v>
       </c>
       <c r="T28" t="n">
-        <v>5.278807090622294</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06738902668879533</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,31 +33409,31 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.754258377230491</v>
+        <v>2.754258377230492</v>
       </c>
       <c r="H32" t="n">
-        <v>28.20704860581177</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I32" t="n">
         <v>106.1835460881786</v>
       </c>
       <c r="J32" t="n">
-        <v>233.7642369444666</v>
+        <v>233.7642369444667</v>
       </c>
       <c r="K32" t="n">
         <v>350.3519940526334</v>
       </c>
       <c r="L32" t="n">
-        <v>434.6426288648011</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M32" t="n">
         <v>483.6236712808739</v>
       </c>
       <c r="N32" t="n">
-        <v>491.44920789518</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O32" t="n">
-        <v>464.0615511565943</v>
+        <v>464.0615511565944</v>
       </c>
       <c r="P32" t="n">
         <v>396.0657974687165</v>
@@ -33445,7 +33445,7 @@
         <v>173.012182788705</v>
       </c>
       <c r="S32" t="n">
-        <v>62.76266277113988</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T32" t="n">
         <v>12.05676604632648</v>
@@ -33491,46 +33491,46 @@
         <v>1.473658149666297</v>
       </c>
       <c r="H33" t="n">
-        <v>14.2324352875666</v>
+        <v>14.23243528756661</v>
       </c>
       <c r="I33" t="n">
-        <v>50.73779155649311</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J33" t="n">
         <v>139.2283780787794</v>
       </c>
       <c r="K33" t="n">
-        <v>237.9634741064212</v>
+        <v>237.9634741064213</v>
       </c>
       <c r="L33" t="n">
-        <v>319.9712574527632</v>
+        <v>319.9712574527633</v>
       </c>
       <c r="M33" t="n">
         <v>373.3913653781664</v>
       </c>
       <c r="N33" t="n">
-        <v>383.2739237590426</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O33" t="n">
-        <v>350.6207616006473</v>
+        <v>350.6207616006474</v>
       </c>
       <c r="P33" t="n">
         <v>281.4040724568914</v>
       </c>
       <c r="Q33" t="n">
-        <v>188.1111701223153</v>
+        <v>188.1111701223154</v>
       </c>
       <c r="R33" t="n">
-        <v>91.49607353805308</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S33" t="n">
         <v>27.37255378875773</v>
       </c>
       <c r="T33" t="n">
-        <v>5.939876489225114</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09695119405699323</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,25 +33573,25 @@
         <v>10.98441135027364</v>
       </c>
       <c r="I34" t="n">
-        <v>37.15381671442246</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J34" t="n">
-        <v>87.34741009312678</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K34" t="n">
         <v>143.5386268471339</v>
       </c>
       <c r="L34" t="n">
-        <v>183.6800237447596</v>
+        <v>183.6800237447597</v>
       </c>
       <c r="M34" t="n">
-        <v>193.6648311991494</v>
+        <v>193.6648311991495</v>
       </c>
       <c r="N34" t="n">
         <v>189.0599143754152</v>
       </c>
       <c r="O34" t="n">
-        <v>174.6274311595648</v>
+        <v>174.6274311595649</v>
       </c>
       <c r="P34" t="n">
         <v>149.4239351779553</v>
@@ -33600,16 +33600,16 @@
         <v>103.4533874717489</v>
       </c>
       <c r="R34" t="n">
-        <v>55.55102100046354</v>
+        <v>55.55102100046356</v>
       </c>
       <c r="S34" t="n">
         <v>21.53079402707008</v>
       </c>
       <c r="T34" t="n">
-        <v>5.278807090622294</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06738902668879533</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,31 +33646,31 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.754258377230491</v>
+        <v>2.754258377230492</v>
       </c>
       <c r="H35" t="n">
-        <v>28.20704860581177</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I35" t="n">
         <v>106.1835460881786</v>
       </c>
       <c r="J35" t="n">
-        <v>233.7642369444666</v>
+        <v>233.7642369444667</v>
       </c>
       <c r="K35" t="n">
         <v>350.3519940526334</v>
       </c>
       <c r="L35" t="n">
-        <v>434.6426288648011</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M35" t="n">
         <v>483.6236712808739</v>
       </c>
       <c r="N35" t="n">
-        <v>491.44920789518</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O35" t="n">
-        <v>464.0615511565943</v>
+        <v>464.0615511565944</v>
       </c>
       <c r="P35" t="n">
         <v>396.0657974687165</v>
@@ -33682,7 +33682,7 @@
         <v>173.012182788705</v>
       </c>
       <c r="S35" t="n">
-        <v>62.76266277113988</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T35" t="n">
         <v>12.05676604632648</v>
@@ -33728,46 +33728,46 @@
         <v>1.473658149666297</v>
       </c>
       <c r="H36" t="n">
-        <v>14.2324352875666</v>
+        <v>14.23243528756661</v>
       </c>
       <c r="I36" t="n">
-        <v>50.73779155649311</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J36" t="n">
         <v>139.2283780787794</v>
       </c>
       <c r="K36" t="n">
-        <v>237.9634741064212</v>
+        <v>237.9634741064213</v>
       </c>
       <c r="L36" t="n">
-        <v>319.9712574527632</v>
+        <v>319.9712574527633</v>
       </c>
       <c r="M36" t="n">
         <v>373.3913653781664</v>
       </c>
       <c r="N36" t="n">
-        <v>383.2739237590426</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O36" t="n">
-        <v>350.6207616006473</v>
+        <v>350.6207616006474</v>
       </c>
       <c r="P36" t="n">
         <v>281.4040724568914</v>
       </c>
       <c r="Q36" t="n">
-        <v>188.1111701223153</v>
+        <v>188.1111701223154</v>
       </c>
       <c r="R36" t="n">
-        <v>91.49607353805308</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S36" t="n">
         <v>27.37255378875773</v>
       </c>
       <c r="T36" t="n">
-        <v>5.939876489225114</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09695119405699323</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,25 +33810,25 @@
         <v>10.98441135027364</v>
       </c>
       <c r="I37" t="n">
-        <v>37.15381671442246</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J37" t="n">
-        <v>87.34741009312678</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K37" t="n">
         <v>143.5386268471339</v>
       </c>
       <c r="L37" t="n">
-        <v>183.6800237447596</v>
+        <v>183.6800237447597</v>
       </c>
       <c r="M37" t="n">
-        <v>193.6648311991494</v>
+        <v>193.6648311991495</v>
       </c>
       <c r="N37" t="n">
         <v>189.0599143754152</v>
       </c>
       <c r="O37" t="n">
-        <v>174.6274311595648</v>
+        <v>174.6274311595649</v>
       </c>
       <c r="P37" t="n">
         <v>149.4239351779553</v>
@@ -33837,16 +33837,16 @@
         <v>103.4533874717489</v>
       </c>
       <c r="R37" t="n">
-        <v>55.55102100046354</v>
+        <v>55.55102100046356</v>
       </c>
       <c r="S37" t="n">
         <v>21.53079402707008</v>
       </c>
       <c r="T37" t="n">
-        <v>5.278807090622294</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06738902668879533</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,31 +33883,31 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.754258377230491</v>
+        <v>2.754258377230492</v>
       </c>
       <c r="H38" t="n">
-        <v>28.20704860581177</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I38" t="n">
         <v>106.1835460881786</v>
       </c>
       <c r="J38" t="n">
-        <v>233.7642369444666</v>
+        <v>233.7642369444667</v>
       </c>
       <c r="K38" t="n">
         <v>350.3519940526334</v>
       </c>
       <c r="L38" t="n">
-        <v>434.6426288648011</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M38" t="n">
         <v>483.6236712808739</v>
       </c>
       <c r="N38" t="n">
-        <v>491.44920789518</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O38" t="n">
-        <v>464.0615511565943</v>
+        <v>464.0615511565944</v>
       </c>
       <c r="P38" t="n">
         <v>396.0657974687165</v>
@@ -33919,7 +33919,7 @@
         <v>173.012182788705</v>
       </c>
       <c r="S38" t="n">
-        <v>62.76266277113988</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T38" t="n">
         <v>12.05676604632648</v>
@@ -33965,46 +33965,46 @@
         <v>1.473658149666297</v>
       </c>
       <c r="H39" t="n">
-        <v>14.2324352875666</v>
+        <v>14.23243528756661</v>
       </c>
       <c r="I39" t="n">
-        <v>50.73779155649311</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J39" t="n">
         <v>139.2283780787794</v>
       </c>
       <c r="K39" t="n">
-        <v>237.9634741064212</v>
+        <v>237.9634741064213</v>
       </c>
       <c r="L39" t="n">
-        <v>319.9712574527632</v>
+        <v>319.9712574527633</v>
       </c>
       <c r="M39" t="n">
         <v>373.3913653781664</v>
       </c>
       <c r="N39" t="n">
-        <v>383.2739237590426</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O39" t="n">
-        <v>350.6207616006473</v>
+        <v>350.6207616006474</v>
       </c>
       <c r="P39" t="n">
         <v>281.4040724568914</v>
       </c>
       <c r="Q39" t="n">
-        <v>188.1111701223153</v>
+        <v>188.1111701223154</v>
       </c>
       <c r="R39" t="n">
-        <v>91.49607353805308</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S39" t="n">
         <v>27.37255378875773</v>
       </c>
       <c r="T39" t="n">
-        <v>5.939876489225114</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09695119405699323</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,25 +34047,25 @@
         <v>10.98441135027364</v>
       </c>
       <c r="I40" t="n">
-        <v>37.15381671442246</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J40" t="n">
-        <v>87.34741009312678</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K40" t="n">
         <v>143.5386268471339</v>
       </c>
       <c r="L40" t="n">
-        <v>183.6800237447596</v>
+        <v>183.6800237447597</v>
       </c>
       <c r="M40" t="n">
-        <v>193.6648311991494</v>
+        <v>193.6648311991495</v>
       </c>
       <c r="N40" t="n">
         <v>189.0599143754152</v>
       </c>
       <c r="O40" t="n">
-        <v>174.6274311595648</v>
+        <v>174.6274311595649</v>
       </c>
       <c r="P40" t="n">
         <v>149.4239351779553</v>
@@ -34074,16 +34074,16 @@
         <v>103.4533874717489</v>
       </c>
       <c r="R40" t="n">
-        <v>55.55102100046354</v>
+        <v>55.55102100046356</v>
       </c>
       <c r="S40" t="n">
         <v>21.53079402707008</v>
       </c>
       <c r="T40" t="n">
-        <v>5.278807090622294</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06738902668879533</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,31 +34120,31 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.754258377230491</v>
+        <v>2.754258377230492</v>
       </c>
       <c r="H41" t="n">
-        <v>28.20704860581177</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I41" t="n">
         <v>106.1835460881786</v>
       </c>
       <c r="J41" t="n">
-        <v>233.7642369444666</v>
+        <v>233.7642369444667</v>
       </c>
       <c r="K41" t="n">
         <v>350.3519940526334</v>
       </c>
       <c r="L41" t="n">
-        <v>434.6426288648011</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M41" t="n">
         <v>483.6236712808739</v>
       </c>
       <c r="N41" t="n">
-        <v>491.44920789518</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O41" t="n">
-        <v>464.0615511565943</v>
+        <v>464.0615511565944</v>
       </c>
       <c r="P41" t="n">
         <v>396.0657974687165</v>
@@ -34156,7 +34156,7 @@
         <v>173.012182788705</v>
       </c>
       <c r="S41" t="n">
-        <v>62.76266277113988</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T41" t="n">
         <v>12.05676604632648</v>
@@ -34202,46 +34202,46 @@
         <v>1.473658149666297</v>
       </c>
       <c r="H42" t="n">
-        <v>14.2324352875666</v>
+        <v>14.23243528756661</v>
       </c>
       <c r="I42" t="n">
-        <v>50.73779155649311</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J42" t="n">
         <v>139.2283780787794</v>
       </c>
       <c r="K42" t="n">
-        <v>237.9634741064212</v>
+        <v>237.9634741064213</v>
       </c>
       <c r="L42" t="n">
-        <v>319.9712574527632</v>
+        <v>319.9712574527633</v>
       </c>
       <c r="M42" t="n">
         <v>373.3913653781664</v>
       </c>
       <c r="N42" t="n">
-        <v>383.2739237590426</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O42" t="n">
-        <v>350.6207616006473</v>
+        <v>350.6207616006474</v>
       </c>
       <c r="P42" t="n">
         <v>281.4040724568914</v>
       </c>
       <c r="Q42" t="n">
-        <v>188.1111701223153</v>
+        <v>188.1111701223154</v>
       </c>
       <c r="R42" t="n">
-        <v>91.49607353805308</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S42" t="n">
         <v>27.37255378875773</v>
       </c>
       <c r="T42" t="n">
-        <v>5.939876489225114</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09695119405699323</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,25 +34284,25 @@
         <v>10.98441135027364</v>
       </c>
       <c r="I43" t="n">
-        <v>37.15381671442246</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J43" t="n">
-        <v>87.34741009312678</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K43" t="n">
         <v>143.5386268471339</v>
       </c>
       <c r="L43" t="n">
-        <v>183.6800237447596</v>
+        <v>183.6800237447597</v>
       </c>
       <c r="M43" t="n">
-        <v>193.6648311991494</v>
+        <v>193.6648311991495</v>
       </c>
       <c r="N43" t="n">
         <v>189.0599143754152</v>
       </c>
       <c r="O43" t="n">
-        <v>174.6274311595648</v>
+        <v>174.6274311595649</v>
       </c>
       <c r="P43" t="n">
         <v>149.4239351779553</v>
@@ -34311,16 +34311,16 @@
         <v>103.4533874717489</v>
       </c>
       <c r="R43" t="n">
-        <v>55.55102100046354</v>
+        <v>55.55102100046356</v>
       </c>
       <c r="S43" t="n">
         <v>21.53079402707008</v>
       </c>
       <c r="T43" t="n">
-        <v>5.278807090622294</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06738902668879533</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,34 +34357,34 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.754258377230491</v>
+        <v>2.754258377230492</v>
       </c>
       <c r="H44" t="n">
-        <v>28.20704860581177</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I44" t="n">
         <v>106.1835460881786</v>
       </c>
       <c r="J44" t="n">
-        <v>233.7642369444666</v>
+        <v>233.7642369444667</v>
       </c>
       <c r="K44" t="n">
-        <v>350.3519940526333</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L44" t="n">
-        <v>434.6426288648011</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M44" t="n">
-        <v>483.6236712808737</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N44" t="n">
-        <v>491.4492078951799</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O44" t="n">
-        <v>464.0615511565942</v>
+        <v>464.0615511565944</v>
       </c>
       <c r="P44" t="n">
-        <v>396.0657974687164</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q44" t="n">
         <v>297.4289193341494</v>
@@ -34393,13 +34393,13 @@
         <v>173.012182788705</v>
       </c>
       <c r="S44" t="n">
-        <v>62.76266277113987</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T44" t="n">
         <v>12.05676604632648</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2203406701784392</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.473658149666296</v>
+        <v>1.473658149666297</v>
       </c>
       <c r="H45" t="n">
-        <v>14.2324352875666</v>
+        <v>14.23243528756661</v>
       </c>
       <c r="I45" t="n">
-        <v>50.7377915564931</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J45" t="n">
-        <v>139.2283780787793</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K45" t="n">
-        <v>237.9634741064212</v>
+        <v>237.9634741064213</v>
       </c>
       <c r="L45" t="n">
-        <v>319.9712574527632</v>
+        <v>319.9712574527633</v>
       </c>
       <c r="M45" t="n">
-        <v>373.3913653781663</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N45" t="n">
-        <v>383.2739237590426</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O45" t="n">
-        <v>350.6207616006473</v>
+        <v>350.6207616006474</v>
       </c>
       <c r="P45" t="n">
-        <v>281.4040724568913</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q45" t="n">
-        <v>188.1111701223153</v>
+        <v>188.1111701223154</v>
       </c>
       <c r="R45" t="n">
-        <v>91.49607353805307</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S45" t="n">
-        <v>27.37255378875772</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T45" t="n">
-        <v>5.939876489225113</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09695119405699322</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,46 +34518,46 @@
         <v>1.23546548929458</v>
       </c>
       <c r="H46" t="n">
-        <v>10.98441135027363</v>
+        <v>10.98441135027364</v>
       </c>
       <c r="I46" t="n">
-        <v>37.15381671442245</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J46" t="n">
-        <v>87.34741009312677</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K46" t="n">
         <v>143.5386268471339</v>
       </c>
       <c r="L46" t="n">
-        <v>183.6800237447596</v>
+        <v>183.6800237447597</v>
       </c>
       <c r="M46" t="n">
-        <v>193.6648311991494</v>
+        <v>193.6648311991495</v>
       </c>
       <c r="N46" t="n">
         <v>189.0599143754152</v>
       </c>
       <c r="O46" t="n">
-        <v>174.6274311595648</v>
+        <v>174.6274311595649</v>
       </c>
       <c r="P46" t="n">
         <v>149.4239351779553</v>
       </c>
       <c r="Q46" t="n">
-        <v>103.4533874717488</v>
+        <v>103.4533874717489</v>
       </c>
       <c r="R46" t="n">
-        <v>55.55102100046354</v>
+        <v>55.55102100046356</v>
       </c>
       <c r="S46" t="n">
-        <v>21.53079402707007</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T46" t="n">
-        <v>5.278807090622293</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06738902668879533</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>52.71833241778032</v>
+        <v>52.71833241778037</v>
       </c>
       <c r="K11" t="n">
-        <v>448.4202733404287</v>
+        <v>130.2621430076529</v>
       </c>
       <c r="L11" t="n">
-        <v>285.1915435012233</v>
+        <v>198.8762138948139</v>
       </c>
       <c r="M11" t="n">
-        <v>253.2774380536011</v>
+        <v>253.2774380536012</v>
       </c>
       <c r="N11" t="n">
-        <v>262.0361442985891</v>
+        <v>262.0361442985892</v>
       </c>
       <c r="O11" t="n">
         <v>233.9633397349076</v>
       </c>
       <c r="P11" t="n">
-        <v>164.8328017134469</v>
+        <v>356.9912709927277</v>
       </c>
       <c r="Q11" t="n">
-        <v>75.1232294596999</v>
+        <v>287.4382201196046</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>138.4817867525215</v>
+        <v>12.39075141211271</v>
       </c>
       <c r="K12" t="n">
-        <v>351.7283748430707</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L12" t="n">
-        <v>181.416877672889</v>
+        <v>448.4202733404287</v>
       </c>
       <c r="M12" t="n">
-        <v>448.4202733404287</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N12" t="n">
-        <v>251.9322116757093</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O12" t="n">
-        <v>208.0245171562029</v>
+        <v>271.4162014117826</v>
       </c>
       <c r="P12" t="n">
         <v>147.4296650425611</v>
       </c>
       <c r="Q12" t="n">
-        <v>48.12939603629383</v>
+        <v>48.12939603629385</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>221.8149475898541</v>
+        <v>148.0706239106616</v>
       </c>
       <c r="K14" t="n">
-        <v>454.4075555788176</v>
+        <v>130.2621430076529</v>
       </c>
       <c r="L14" t="n">
-        <v>616.5374284452644</v>
+        <v>198.8762138948139</v>
       </c>
       <c r="M14" t="n">
-        <v>553.5982585383775</v>
+        <v>253.2774380536012</v>
       </c>
       <c r="N14" t="n">
-        <v>262.0361442985891</v>
+        <v>652.1659613023897</v>
       </c>
       <c r="O14" t="n">
-        <v>233.9633397349076</v>
+        <v>614.763520997653</v>
       </c>
       <c r="P14" t="n">
-        <v>164.8328017134469</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q14" t="n">
-        <v>75.1232294596999</v>
+        <v>75.12322945969996</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>23.14306484755534</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>138.4817867525215</v>
       </c>
       <c r="K15" t="n">
-        <v>364.5872721446408</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L15" t="n">
-        <v>270.0691494423641</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M15" t="n">
         <v>231.2573314561481</v>
       </c>
       <c r="N15" t="n">
-        <v>251.9322116757093</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O15" t="n">
-        <v>601.8868364329323</v>
+        <v>319.6987628989484</v>
       </c>
       <c r="P15" t="n">
         <v>465.8924336824983</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>71.41179195954831</v>
+        <v>71.41179195954825</v>
       </c>
       <c r="K16" t="n">
         <v>198.6926970043453</v>
       </c>
       <c r="L16" t="n">
-        <v>288.6936109881701</v>
+        <v>288.69361098817</v>
       </c>
       <c r="M16" t="n">
         <v>310.6722701440843</v>
@@ -35820,10 +35820,10 @@
         <v>276.6361210566988</v>
       </c>
       <c r="P16" t="n">
-        <v>224.1260564259431</v>
+        <v>224.126056425943</v>
       </c>
       <c r="Q16" t="n">
-        <v>94.71490620314879</v>
+        <v>94.71490620314873</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>52.71833241778032</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K17" t="n">
         <v>454.4075555788176</v>
       </c>
       <c r="L17" t="n">
-        <v>198.8762138948139</v>
+        <v>616.5374284452644</v>
       </c>
       <c r="M17" t="n">
-        <v>253.2774380536011</v>
+        <v>318.1402030309179</v>
       </c>
       <c r="N17" t="n">
-        <v>262.0361442985891</v>
+        <v>262.0361442985892</v>
       </c>
       <c r="O17" t="n">
-        <v>563.7852262632656</v>
+        <v>233.9633397349076</v>
       </c>
       <c r="P17" t="n">
-        <v>486.6315098849296</v>
+        <v>164.832801713447</v>
       </c>
       <c r="Q17" t="n">
         <v>287.4382201196046</v>
       </c>
       <c r="R17" t="n">
-        <v>23.14306484755531</v>
+        <v>23.14306484755534</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>138.4817867525215</v>
       </c>
       <c r="K18" t="n">
-        <v>364.5872721446408</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L18" t="n">
-        <v>270.0691494423641</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M18" t="n">
         <v>231.2573314561481</v>
       </c>
       <c r="N18" t="n">
-        <v>251.9322116757093</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O18" t="n">
-        <v>601.8868364329323</v>
+        <v>319.6987628989484</v>
       </c>
       <c r="P18" t="n">
         <v>465.8924336824983</v>
@@ -36054,13 +36054,13 @@
         <v>233.1920867546438</v>
       </c>
       <c r="O19" t="n">
-        <v>199.2125590736045</v>
+        <v>199.2125590736046</v>
       </c>
       <c r="P19" t="n">
         <v>146.7024944428488</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.29134422005448</v>
+        <v>17.2913442200545</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,13 +36124,13 @@
         <v>454.4075555788176</v>
       </c>
       <c r="L20" t="n">
-        <v>198.8762138948139</v>
+        <v>359.6014852510982</v>
       </c>
       <c r="M20" t="n">
-        <v>253.2774380536011</v>
+        <v>253.2774380536012</v>
       </c>
       <c r="N20" t="n">
-        <v>445.9044805024288</v>
+        <v>262.0361442985892</v>
       </c>
       <c r="O20" t="n">
         <v>233.9633397349076</v>
@@ -36142,7 +36142,7 @@
         <v>287.4382201196046</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>23.14306484755534</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>138.4817867525215</v>
       </c>
       <c r="K21" t="n">
-        <v>364.5872721446408</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L21" t="n">
         <v>552.2572229763482</v>
@@ -36209,10 +36209,10 @@
         <v>231.2573314561481</v>
       </c>
       <c r="N21" t="n">
-        <v>251.9322116757093</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O21" t="n">
-        <v>319.6987628989481</v>
+        <v>319.6987628989484</v>
       </c>
       <c r="P21" t="n">
         <v>465.8924336824983</v>
@@ -36291,13 +36291,13 @@
         <v>233.1920867546438</v>
       </c>
       <c r="O22" t="n">
-        <v>199.2125590736045</v>
+        <v>199.2125590736046</v>
       </c>
       <c r="P22" t="n">
         <v>146.7024944428488</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.29134422005448</v>
+        <v>17.2913442200545</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>221.8149475898541</v>
       </c>
       <c r="K23" t="n">
-        <v>130.2621430076528</v>
+        <v>234.3326456723565</v>
       </c>
       <c r="L23" t="n">
-        <v>616.5374284452644</v>
+        <v>198.8762138948139</v>
       </c>
       <c r="M23" t="n">
-        <v>253.2774380536011</v>
+        <v>253.2774380536012</v>
       </c>
       <c r="N23" t="n">
-        <v>262.0361442985891</v>
+        <v>262.0361442985892</v>
       </c>
       <c r="O23" t="n">
-        <v>614.7635209976529</v>
+        <v>614.763520997653</v>
       </c>
       <c r="P23" t="n">
-        <v>196.1838628467367</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q23" t="n">
         <v>287.4382201196046</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>23.14306484755534</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>12.39075141211268</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K24" t="n">
-        <v>100.1220351320623</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L24" t="n">
-        <v>181.416877672889</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M24" t="n">
-        <v>652.1659613023892</v>
+        <v>261.1605962121503</v>
       </c>
       <c r="N24" t="n">
-        <v>310.2321259519289</v>
+        <v>652.1659613023897</v>
       </c>
       <c r="O24" t="n">
-        <v>601.8868364329323</v>
+        <v>208.0245171562029</v>
       </c>
       <c r="P24" t="n">
-        <v>465.8924336824983</v>
+        <v>147.4296650425611</v>
       </c>
       <c r="Q24" t="n">
         <v>258.2066837721429</v>
@@ -36528,13 +36528,13 @@
         <v>233.1920867546438</v>
       </c>
       <c r="O25" t="n">
-        <v>199.2125590736045</v>
+        <v>199.2125590736046</v>
       </c>
       <c r="P25" t="n">
         <v>146.7024944428488</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.29134422005448</v>
+        <v>17.2913442200545</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>221.8149475898541</v>
       </c>
       <c r="K26" t="n">
-        <v>130.2621430076528</v>
+        <v>361.9001060507968</v>
       </c>
       <c r="L26" t="n">
         <v>616.5374284452644</v>
@@ -36607,16 +36607,16 @@
         <v>699.3830687105733</v>
       </c>
       <c r="O26" t="n">
-        <v>614.7635209976529</v>
+        <v>233.9633397349076</v>
       </c>
       <c r="P26" t="n">
-        <v>360.6123565128839</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q26" t="n">
         <v>287.4382201196046</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>23.14306484755534</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>138.4817867525215</v>
       </c>
       <c r="K27" t="n">
-        <v>364.5872721446408</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L27" t="n">
         <v>552.2572229763482</v>
@@ -36683,10 +36683,10 @@
         <v>231.2573314561481</v>
       </c>
       <c r="N27" t="n">
-        <v>251.9322116757093</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O27" t="n">
-        <v>319.6987628989489</v>
+        <v>319.6987628989481</v>
       </c>
       <c r="P27" t="n">
         <v>465.8924336824983</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.96788811211115</v>
+        <v>73.96788811211113</v>
       </c>
       <c r="K28" t="n">
-        <v>201.2487931569082</v>
+        <v>201.2487931569081</v>
       </c>
       <c r="L28" t="n">
         <v>291.2497071407329</v>
@@ -36771,7 +36771,7 @@
         <v>226.6821525785059</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.27100235571163</v>
+        <v>97.2710023557116</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>221.8149475898541</v>
+        <v>52.71833241778037</v>
       </c>
       <c r="K29" t="n">
-        <v>454.4075555788176</v>
+        <v>150.1965399601243</v>
       </c>
       <c r="L29" t="n">
         <v>616.5374284452644</v>
@@ -36847,13 +36847,13 @@
         <v>614.763520997653</v>
       </c>
       <c r="P29" t="n">
-        <v>164.832801713447</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q29" t="n">
-        <v>159.072362347876</v>
+        <v>287.4382201196046</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>23.14306484755534</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>552.2572229763482</v>
       </c>
       <c r="M30" t="n">
-        <v>342.9315771988933</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N30" t="n">
         <v>251.9322116757094</v>
       </c>
       <c r="O30" t="n">
-        <v>208.0245171562029</v>
+        <v>319.6987628989481</v>
       </c>
       <c r="P30" t="n">
         <v>465.8924336824983</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.96788811211115</v>
+        <v>73.96788811211118</v>
       </c>
       <c r="K31" t="n">
         <v>201.2487931569082</v>
       </c>
       <c r="L31" t="n">
-        <v>291.2497071407329</v>
+        <v>291.249707140733</v>
       </c>
       <c r="M31" t="n">
         <v>313.2283662966472</v>
       </c>
       <c r="N31" t="n">
-        <v>313.1717448903009</v>
+        <v>313.171744890301</v>
       </c>
       <c r="O31" t="n">
         <v>279.1922172092617</v>
       </c>
       <c r="P31" t="n">
-        <v>226.6821525785059</v>
+        <v>226.682152578506</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.27100235571163</v>
+        <v>97.27100235571166</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,10 +37069,10 @@
         <v>221.8149475898541</v>
       </c>
       <c r="K32" t="n">
-        <v>130.2621430076528</v>
+        <v>454.4075555788176</v>
       </c>
       <c r="L32" t="n">
-        <v>616.5374284452644</v>
+        <v>488.1715706735353</v>
       </c>
       <c r="M32" t="n">
         <v>702.7909715464336</v>
@@ -37081,16 +37081,16 @@
         <v>699.3830687105733</v>
       </c>
       <c r="O32" t="n">
-        <v>465.6013027780516</v>
+        <v>614.763520997653</v>
       </c>
       <c r="P32" t="n">
-        <v>486.6315098849296</v>
+        <v>164.832801713447</v>
       </c>
       <c r="Q32" t="n">
         <v>287.4382201196046</v>
       </c>
       <c r="R32" t="n">
-        <v>23.14306484755531</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>138.4817867525215</v>
       </c>
       <c r="K33" t="n">
-        <v>364.5872721446408</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L33" t="n">
         <v>552.2572229763482</v>
       </c>
       <c r="M33" t="n">
-        <v>342.931577198894</v>
+        <v>696.962395206148</v>
       </c>
       <c r="N33" t="n">
-        <v>251.9322116757093</v>
+        <v>426.4414500442404</v>
       </c>
       <c r="O33" t="n">
         <v>208.0245171562029</v>
       </c>
       <c r="P33" t="n">
-        <v>465.8924336824983</v>
+        <v>147.4296650425611</v>
       </c>
       <c r="Q33" t="n">
-        <v>258.2066837721429</v>
+        <v>48.12939603629385</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.96788811211111</v>
+        <v>73.96788811211117</v>
       </c>
       <c r="K34" t="n">
-        <v>201.2487931569081</v>
+        <v>201.2487931569082</v>
       </c>
       <c r="L34" t="n">
         <v>291.2497071407329</v>
       </c>
       <c r="M34" t="n">
-        <v>313.2283662966471</v>
+        <v>313.2283662966472</v>
       </c>
       <c r="N34" t="n">
-        <v>313.1717448903009</v>
+        <v>313.171744890301</v>
       </c>
       <c r="O34" t="n">
-        <v>279.1922172092616</v>
+        <v>279.1922172092617</v>
       </c>
       <c r="P34" t="n">
-        <v>226.6821525785059</v>
+        <v>226.682152578506</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.27100235571159</v>
+        <v>97.27100235571164</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>52.71833241778032</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K35" t="n">
         <v>454.4075555788176</v>
@@ -37312,22 +37312,22 @@
         <v>616.5374284452644</v>
       </c>
       <c r="M35" t="n">
-        <v>253.2774380536011</v>
+        <v>702.7909715464336</v>
       </c>
       <c r="N35" t="n">
-        <v>699.3830687105733</v>
+        <v>262.0361442985892</v>
       </c>
       <c r="O35" t="n">
-        <v>614.7635209976529</v>
+        <v>233.9633397349076</v>
       </c>
       <c r="P35" t="n">
-        <v>486.6315098849296</v>
+        <v>459.3760146652778</v>
       </c>
       <c r="Q35" t="n">
-        <v>83.78883273768555</v>
+        <v>287.4382201196046</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>23.14306484755534</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,19 +37385,19 @@
         <v>138.4817867525215</v>
       </c>
       <c r="K36" t="n">
-        <v>364.5872721446408</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L36" t="n">
-        <v>181.416877672889</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M36" t="n">
         <v>231.2573314561481</v>
       </c>
       <c r="N36" t="n">
-        <v>731.2745860192629</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O36" t="n">
-        <v>211.1967338588545</v>
+        <v>319.6987628989484</v>
       </c>
       <c r="P36" t="n">
         <v>465.8924336824983</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>98.28057345868132</v>
       </c>
       <c r="K37" t="n">
         <v>121.269135021251</v>
@@ -37470,19 +37470,19 @@
         <v>211.2700490050758</v>
       </c>
       <c r="M37" t="n">
-        <v>233.24870816099</v>
+        <v>337.5410516432173</v>
       </c>
       <c r="N37" t="n">
-        <v>233.1920867546438</v>
+        <v>267.5433634315914</v>
       </c>
       <c r="O37" t="n">
-        <v>227.5520657270055</v>
+        <v>199.2125590736046</v>
       </c>
       <c r="P37" t="n">
-        <v>250.9948379250761</v>
+        <v>146.7024944428488</v>
       </c>
       <c r="Q37" t="n">
-        <v>121.5836877022818</v>
+        <v>17.2913442200545</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,16 +37546,16 @@
         <v>454.4075555788176</v>
       </c>
       <c r="L38" t="n">
-        <v>616.5374284452644</v>
+        <v>198.8762138948139</v>
       </c>
       <c r="M38" t="n">
-        <v>253.2774380536011</v>
+        <v>298.1926500500583</v>
       </c>
       <c r="N38" t="n">
-        <v>326.6370661565807</v>
+        <v>699.3830687105733</v>
       </c>
       <c r="O38" t="n">
-        <v>614.7635209976529</v>
+        <v>614.763520997653</v>
       </c>
       <c r="P38" t="n">
         <v>486.6315098849296</v>
@@ -37622,19 +37622,19 @@
         <v>138.4817867525215</v>
       </c>
       <c r="K39" t="n">
-        <v>364.5872721446408</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L39" t="n">
         <v>552.2572229763482</v>
       </c>
       <c r="M39" t="n">
-        <v>342.931577198894</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N39" t="n">
-        <v>251.9322116757093</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O39" t="n">
-        <v>208.0245171562029</v>
+        <v>319.6987628989484</v>
       </c>
       <c r="P39" t="n">
         <v>465.8924336824983</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>98.28057345868132</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>225.5614785034783</v>
+        <v>121.269135021251</v>
       </c>
       <c r="L40" t="n">
         <v>211.2700490050758</v>
@@ -37710,16 +37710,16 @@
         <v>233.24870816099</v>
       </c>
       <c r="N40" t="n">
-        <v>233.1920867546438</v>
+        <v>261.5315934080451</v>
       </c>
       <c r="O40" t="n">
-        <v>199.2125590736045</v>
+        <v>199.2125590736046</v>
       </c>
       <c r="P40" t="n">
-        <v>146.7024944428488</v>
+        <v>250.9948379250761</v>
       </c>
       <c r="Q40" t="n">
-        <v>51.64262089700202</v>
+        <v>121.5836877022818</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,13 +37786,13 @@
         <v>616.5374284452644</v>
       </c>
       <c r="M41" t="n">
-        <v>253.2774380536011</v>
+        <v>253.2774380536012</v>
       </c>
       <c r="N41" t="n">
-        <v>326.6370661565807</v>
+        <v>326.63706615658</v>
       </c>
       <c r="O41" t="n">
-        <v>614.7635209976529</v>
+        <v>614.763520997653</v>
       </c>
       <c r="P41" t="n">
         <v>486.6315098849296</v>
@@ -37859,22 +37859,22 @@
         <v>138.4817867525215</v>
       </c>
       <c r="K42" t="n">
-        <v>364.5872721446408</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L42" t="n">
-        <v>503.0518630154778</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M42" t="n">
         <v>231.2573314561481</v>
       </c>
       <c r="N42" t="n">
-        <v>731.2745860192629</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O42" t="n">
-        <v>208.0245171562029</v>
+        <v>319.6987628989484</v>
       </c>
       <c r="P42" t="n">
-        <v>147.4296650425611</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q42" t="n">
         <v>258.2066837721429</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>98.28057345868132</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>155.6204116981985</v>
+        <v>121.269135021251</v>
       </c>
       <c r="L43" t="n">
-        <v>211.2700490050758</v>
+        <v>239.6095556584779</v>
       </c>
       <c r="M43" t="n">
-        <v>233.24870816099</v>
+        <v>337.5410516432173</v>
       </c>
       <c r="N43" t="n">
-        <v>233.1920867546438</v>
+        <v>337.4844302368711</v>
       </c>
       <c r="O43" t="n">
-        <v>303.5049025558318</v>
+        <v>199.2125590736046</v>
       </c>
       <c r="P43" t="n">
         <v>146.7024944428488</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.29134422005448</v>
+        <v>17.2913442200545</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,25 +38014,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>221.8149475898541</v>
+        <v>52.71833241778037</v>
       </c>
       <c r="K44" t="n">
-        <v>130.2621430076528</v>
+        <v>250.7581681968981</v>
       </c>
       <c r="L44" t="n">
-        <v>616.5374284452643</v>
+        <v>616.5374284452644</v>
       </c>
       <c r="M44" t="n">
-        <v>702.7909715464335</v>
+        <v>253.2774380536012</v>
       </c>
       <c r="N44" t="n">
-        <v>699.3830687105732</v>
+        <v>699.3830687105733</v>
       </c>
       <c r="O44" t="n">
-        <v>233.9633397349075</v>
+        <v>614.763520997653</v>
       </c>
       <c r="P44" t="n">
-        <v>369.3175676720151</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q44" t="n">
         <v>287.4382201196046</v>
@@ -38096,22 +38096,22 @@
         <v>138.4817867525215</v>
       </c>
       <c r="K45" t="n">
-        <v>364.5872721446408</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L45" t="n">
-        <v>181.416877672889</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M45" t="n">
-        <v>231.257331456148</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N45" t="n">
-        <v>340.5844834451855</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O45" t="n">
-        <v>601.8868364329323</v>
+        <v>319.6987628989484</v>
       </c>
       <c r="P45" t="n">
-        <v>465.8924336824982</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q45" t="n">
         <v>258.2066837721429</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>98.2805734586813</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>225.5614785034783</v>
+        <v>121.269135021251</v>
       </c>
       <c r="L46" t="n">
-        <v>211.2700490050757</v>
+        <v>211.2700490050758</v>
       </c>
       <c r="M46" t="n">
         <v>233.24870816099</v>
       </c>
       <c r="N46" t="n">
-        <v>233.1920867546438</v>
+        <v>337.4844302368712</v>
       </c>
       <c r="O46" t="n">
-        <v>233.563835750552</v>
+        <v>303.5049025558318</v>
       </c>
       <c r="P46" t="n">
-        <v>146.7024944428487</v>
+        <v>146.7024944428488</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.29134422005446</v>
+        <v>45.630850873456</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
